--- a/data/N1-FullRoadTraffic.xlsx
+++ b/data/N1-FullRoadTraffic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPA\EPA Semester-1.3\EPA1351 Advanced Discrete Simulation\BangladeshModelingStudy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{207842D1-0212-49AB-A4F8-8E3BCD788BFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B314E2CA-2F21-4A32-8A7F-8EABC9DD6A51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11812" uniqueCount="2883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11821" uniqueCount="2883">
   <si>
     <t>road</t>
   </si>
@@ -109,7 +109,7 @@
     <t>Km post missing</t>
   </si>
   <si>
-    <t>LRP001a _B</t>
+    <t>LRP001a_B</t>
   </si>
   <si>
     <t>Bridge</t>
@@ -145,7 +145,7 @@
     <t>Road to Narayanganj(R111)</t>
   </si>
   <si>
-    <t>LRP004b _B</t>
+    <t>LRP004b_B</t>
   </si>
   <si>
     <t>LRP005</t>
@@ -193,7 +193,7 @@
     <t>Road to Sylhet (N2)</t>
   </si>
   <si>
-    <t>LRP008b _B</t>
+    <t>LRP008b_B</t>
   </si>
   <si>
     <t>KANCHPUR PC GIRDER BRIDGE</t>
@@ -217,7 +217,7 @@
     <t>LRP011</t>
   </si>
   <si>
-    <t>LRP010a _B</t>
+    <t>LRP010a_B</t>
   </si>
   <si>
     <t>KATCHPUR BOX CULVERT</t>
@@ -226,7 +226,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>LRP010b _B</t>
+    <t>LRP010b_B</t>
   </si>
   <si>
     <t>NOYAPARA CULVERT</t>
@@ -235,13 +235,13 @@
     <t>LRP011a</t>
   </si>
   <si>
-    <t>LRP010c _B</t>
+    <t>LRP010c_B</t>
   </si>
   <si>
     <t>ADUPUR CULVERT</t>
   </si>
   <si>
-    <t>LRP011a _B</t>
+    <t>LRP011a_B</t>
   </si>
   <si>
     <t>NAYABARI KASPUR BOX CULVERT</t>
@@ -265,7 +265,7 @@
     <t>LRP012b</t>
   </si>
   <si>
-    <t>LRP011c _B</t>
+    <t>LRP011c_B</t>
   </si>
   <si>
     <t>NAYABARI BOX CULVERT</t>
@@ -277,13 +277,13 @@
     <t>Right to Syedpur (R113) left to Joydebpur N105)</t>
   </si>
   <si>
-    <t>LRP012a _B</t>
+    <t>LRP012a_B</t>
   </si>
   <si>
     <t>KHAS PARA BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP012b _B</t>
+    <t>LRP012b_B</t>
   </si>
   <si>
     <t>DAWAN BAG BOX CULVERT</t>
@@ -295,7 +295,7 @@
     <t>Ctg 247 km,Comilla 80 km</t>
   </si>
   <si>
-    <t>LRP013a _B</t>
+    <t>LRP013a_B</t>
   </si>
   <si>
     <t>Madanpur Bridge.(L)</t>
@@ -304,7 +304,7 @@
     <t>LRP013a</t>
   </si>
   <si>
-    <t>LRP013b _B</t>
+    <t>LRP013b_B</t>
   </si>
   <si>
     <t>Madanpur Bridge(R)</t>
@@ -313,7 +313,7 @@
     <t>LRP014</t>
   </si>
   <si>
-    <t>LRP014a _B</t>
+    <t>LRP014a_B</t>
   </si>
   <si>
     <t>KAWTALA BOX CULVERT</t>
@@ -325,7 +325,7 @@
     <t>LRP015a</t>
   </si>
   <si>
-    <t>LRP016a _B</t>
+    <t>LRP016a_B</t>
   </si>
   <si>
     <t>MALIBAG BOX CULVERT</t>
@@ -358,7 +358,7 @@
     <t>LRP017b</t>
   </si>
   <si>
-    <t>LRP017b _B</t>
+    <t>LRP017b_B</t>
   </si>
   <si>
     <t>Langalbandh Bridge.</t>
@@ -367,7 +367,7 @@
     <t>LRP017c</t>
   </si>
   <si>
-    <t>LRP018b _B</t>
+    <t>LRP018b_B</t>
   </si>
   <si>
     <t>Darikandi Bridge (R)</t>
@@ -385,7 +385,7 @@
     <t>LRP018b</t>
   </si>
   <si>
-    <t>LRP018c _B</t>
+    <t>LRP018c_B</t>
   </si>
   <si>
     <t>SONARKALI BRIDGE(L)</t>
@@ -394,7 +394,7 @@
     <t>LRP019</t>
   </si>
   <si>
-    <t>LRP019a _B</t>
+    <t>LRP019a_B</t>
   </si>
   <si>
     <t>MOLLIK PARA BRIDGE (R)</t>
@@ -409,7 +409,7 @@
     <t>LRP020</t>
   </si>
   <si>
-    <t>LRP020a _B</t>
+    <t>LRP020a_B</t>
   </si>
   <si>
     <t>KRIBORDI BOX CULVERT</t>
@@ -424,7 +424,7 @@
     <t>LRP020b</t>
   </si>
   <si>
-    <t>LRP020b _B</t>
+    <t>LRP020b_B</t>
   </si>
   <si>
     <t>SHADIPUR BOX CULVERT</t>
@@ -436,7 +436,7 @@
     <t>LRP021</t>
   </si>
   <si>
-    <t>LRP021c _B</t>
+    <t>LRP021c_B</t>
   </si>
   <si>
     <t>Marikhali Bridge(L)</t>
@@ -460,7 +460,7 @@
     <t>LRP022c</t>
   </si>
   <si>
-    <t>LRP022a _B</t>
+    <t>LRP022a_B</t>
   </si>
   <si>
     <t>SANGAKADI CULVERT</t>
@@ -469,7 +469,7 @@
     <t>LRP022d</t>
   </si>
   <si>
-    <t>LRP023a _B</t>
+    <t>LRP023a_B</t>
   </si>
   <si>
     <t>ASHIR CHAR ( Left)</t>
@@ -478,7 +478,7 @@
     <t>LRP023</t>
   </si>
   <si>
-    <t>LRP023c _B</t>
+    <t>LRP023c_B</t>
   </si>
   <si>
     <t>ASHIR CHAR (R)</t>
@@ -493,7 +493,7 @@
     <t>LRP024</t>
   </si>
   <si>
-    <t>LRP024a _B</t>
+    <t>LRP024a_B</t>
   </si>
   <si>
     <t>MEGHNA BRIDGE</t>
@@ -511,7 +511,7 @@
     <t>LRP026a</t>
   </si>
   <si>
-    <t>LRP026a _B</t>
+    <t>LRP026a_B</t>
   </si>
   <si>
     <t>TATULTALA CULVERT</t>
@@ -520,7 +520,7 @@
     <t>LRP026b</t>
   </si>
   <si>
-    <t>LRP026b _B</t>
+    <t>LRP026b_B</t>
   </si>
   <si>
     <t>BAILAKANDI CULVERT</t>
@@ -529,7 +529,7 @@
     <t>LRP027</t>
   </si>
   <si>
-    <t>LRP027a _B</t>
+    <t>LRP027a_B</t>
   </si>
   <si>
     <t>MALUAKANDI CULVEDRT</t>
@@ -544,7 +544,7 @@
     <t>LRP028a</t>
   </si>
   <si>
-    <t>LRP028b _B</t>
+    <t>LRP028b_B</t>
   </si>
   <si>
     <t>Bhater char Bridge (L)</t>
@@ -568,7 +568,7 @@
     <t>LRP029b</t>
   </si>
   <si>
-    <t>LRP029a _B</t>
+    <t>LRP029a_B</t>
   </si>
   <si>
     <t>Anarpara Bridge (L)</t>
@@ -577,7 +577,7 @@
     <t>LRP030</t>
   </si>
   <si>
-    <t>LRP030a _B</t>
+    <t>LRP030a_B</t>
   </si>
   <si>
     <t>VITIKANDA - ANAR PUR CULVERT</t>
@@ -601,7 +601,7 @@
     <t>Ctg 229 km,Comilla 62 km</t>
   </si>
   <si>
-    <t>LRP031a _B</t>
+    <t>LRP031a_B</t>
   </si>
   <si>
     <t>ALIPURA BRIDGE (LEFT)</t>
@@ -619,7 +619,7 @@
     <t>LRP031c</t>
   </si>
   <si>
-    <t>LRP032a _B</t>
+    <t>LRP032a_B</t>
   </si>
   <si>
     <t>Bhaber char Bridge(R)</t>
@@ -634,7 +634,7 @@
     <t>LRP032a</t>
   </si>
   <si>
-    <t>LRP032d _B</t>
+    <t>LRP032d_B</t>
   </si>
   <si>
     <t>Baushia Bridge(R)</t>
@@ -646,13 +646,13 @@
     <t>Ctg 227 km,Comilla 60 km</t>
   </si>
   <si>
-    <t>LRP033a _B</t>
+    <t>LRP033a_B</t>
   </si>
   <si>
     <t>PURRANBUICHE BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP033b _B</t>
+    <t>LRP033b_B</t>
   </si>
   <si>
     <t>NOYAPARA</t>
@@ -667,7 +667,7 @@
     <t>LRP033c</t>
   </si>
   <si>
-    <t>LRP034a _B</t>
+    <t>LRP034a_B</t>
   </si>
   <si>
     <t>Madhya Baushia Bridge(L)</t>
@@ -676,7 +676,7 @@
     <t>LRP034</t>
   </si>
   <si>
-    <t>LRP034c _B</t>
+    <t>LRP034c_B</t>
   </si>
   <si>
     <t>BOCTAR KANDI BOX CULVERT</t>
@@ -694,10 +694,10 @@
     <t>LRP035c</t>
   </si>
   <si>
-    <t>LRP035a _B</t>
-  </si>
-  <si>
-    <t>LRP036a _B</t>
+    <t>LRP035a_B</t>
+  </si>
+  <si>
+    <t>LRP036a_B</t>
   </si>
   <si>
     <t>BORAKANDI BRIDGE(L)</t>
@@ -706,7 +706,7 @@
     <t>LRP036</t>
   </si>
   <si>
-    <t>LRP036c _B</t>
+    <t>LRP036c_B</t>
   </si>
   <si>
     <t>CHAR BOUSHEA (2)</t>
@@ -721,7 +721,7 @@
     <t>LRP037</t>
   </si>
   <si>
-    <t>LRP037a _B</t>
+    <t>LRP037a_B</t>
   </si>
   <si>
     <t>Daud Kandi Bridge</t>
@@ -760,7 +760,7 @@
     <t>LRP039a</t>
   </si>
   <si>
-    <t>LRP040b _B</t>
+    <t>LRP040b_B</t>
   </si>
   <si>
     <t>Baldhakhal Bridge</t>
@@ -769,7 +769,7 @@
     <t>LRP040</t>
   </si>
   <si>
-    <t>LRP040c _B</t>
+    <t>LRP040c_B</t>
   </si>
   <si>
     <t>MAIS PARA BOX CULVERT</t>
@@ -796,7 +796,7 @@
     <t>Km post broken</t>
   </si>
   <si>
-    <t>LRP043a _B</t>
+    <t>LRP043a_B</t>
   </si>
   <si>
     <t>SHAHID NAGIR</t>
@@ -814,7 +814,7 @@
     <t>LRP045a</t>
   </si>
   <si>
-    <t>LRP046a _B</t>
+    <t>LRP046a_B</t>
   </si>
   <si>
     <t>SARKAR BARI CULVERT</t>
@@ -841,7 +841,7 @@
     <t>LRP047</t>
   </si>
   <si>
-    <t>LRP047a _B</t>
+    <t>LRP047a_B</t>
   </si>
   <si>
     <t>AMIRABATH SLAB CULVERT</t>
@@ -865,7 +865,7 @@
     <t>LRP049</t>
   </si>
   <si>
-    <t>LRP049a _B</t>
+    <t>LRP049a_B</t>
   </si>
   <si>
     <t>Ginlatoly</t>
@@ -883,7 +883,7 @@
     <t>LRP051</t>
   </si>
   <si>
-    <t>LRP051a _B</t>
+    <t>LRP051a_B</t>
   </si>
   <si>
     <t>RAIPUR BOX CULVERT</t>
@@ -898,7 +898,7 @@
     <t>LRP053</t>
   </si>
   <si>
-    <t>LRP053a _B</t>
+    <t>LRP053a_B</t>
   </si>
   <si>
     <t>AITAL BANGA BOX CULVERT</t>
@@ -925,7 +925,7 @@
     <t>Z1042, road to Bancharampur</t>
   </si>
   <si>
-    <t>LRP056a _B</t>
+    <t>LRP056a_B</t>
   </si>
   <si>
     <t>Illiot bazar Bridge</t>
@@ -943,7 +943,7 @@
     <t>LRP059</t>
   </si>
   <si>
-    <t>LRP059a _B</t>
+    <t>LRP059a_B</t>
   </si>
   <si>
     <t>KHAT GHOR BOX CULVERT</t>
@@ -958,7 +958,7 @@
     <t>LRP061</t>
   </si>
   <si>
-    <t>LRP061a _B</t>
+    <t>LRP061a_B</t>
   </si>
   <si>
     <t>BAKRA BOX CULVERT</t>
@@ -982,7 +982,7 @@
     <t>LRP063c</t>
   </si>
   <si>
-    <t>LRP064a _B</t>
+    <t>LRP064a_B</t>
   </si>
   <si>
     <t>MATIA BAZER</t>
@@ -991,7 +991,7 @@
     <t>LRP064</t>
   </si>
   <si>
-    <t>LRP064c _B</t>
+    <t>LRP064c_B</t>
   </si>
   <si>
     <t>SONAPUR BOX CULVERT</t>
@@ -1012,7 +1012,7 @@
     <t>Ctg 191 km</t>
   </si>
   <si>
-    <t>LRP067a _B</t>
+    <t>LRP067a_B</t>
   </si>
   <si>
     <t>KARON KHAL SLAB CULVERT</t>
@@ -1027,7 +1027,7 @@
     <t>LRP069</t>
   </si>
   <si>
-    <t>LRP068a _B</t>
+    <t>LRP068a_B</t>
   </si>
   <si>
     <t>MILL GHAT BOX CULVERT</t>
@@ -1072,7 +1072,7 @@
     <t>Ctg 187 km</t>
   </si>
   <si>
-    <t>LRP072a _B</t>
+    <t>LRP072a_B</t>
   </si>
   <si>
     <t>CHANDINA- SHAHA PARA RCC GIDER GRIDGE</t>
@@ -1093,7 +1093,7 @@
     <t>Ctg 184 km</t>
   </si>
   <si>
-    <t>LRP075a _B</t>
+    <t>LRP075a_B</t>
   </si>
   <si>
     <t>CORI PAI BOX CULVERT</t>
@@ -1105,7 +1105,7 @@
     <t>LRP077</t>
   </si>
   <si>
-    <t>LRP076a _B</t>
+    <t>LRP076a_B</t>
   </si>
   <si>
     <t>COREPAI BOX CULVERT</t>
@@ -1120,7 +1120,7 @@
     <t>LRP078</t>
   </si>
   <si>
-    <t>LRP077a _B</t>
+    <t>LRP077a_B</t>
   </si>
   <si>
     <t>NIMSHAR SLAB CULVERT</t>
@@ -1135,7 +1135,7 @@
     <t>LRP080</t>
   </si>
   <si>
-    <t>LRP079a _B</t>
+    <t>LRP079a_B</t>
   </si>
   <si>
     <t>KABILA DUBARCHAR SLAB CULVERT</t>
@@ -1153,7 +1153,7 @@
     <t>LRP083</t>
   </si>
   <si>
-    <t>LRP081a _B</t>
+    <t>LRP081a_B</t>
   </si>
   <si>
     <t>NAZIRA BOX CULVERT</t>
@@ -1174,7 +1174,7 @@
     <t>LRP084b</t>
   </si>
   <si>
-    <t>LRP083a _B</t>
+    <t>LRP083a_B</t>
   </si>
   <si>
     <t>TIPRA BAZAR BOX CULVERT</t>
@@ -1183,7 +1183,7 @@
     <t>LRP085</t>
   </si>
   <si>
-    <t>LRP083b _B</t>
+    <t>LRP083b_B</t>
   </si>
   <si>
     <t>AMTOLI SLAB CULVERT</t>
@@ -1219,7 +1219,7 @@
     <t>Cross Road with Z1052</t>
   </si>
   <si>
-    <t>LRP088a _B</t>
+    <t>LRP088a_B</t>
   </si>
   <si>
     <t>Dhanpur Bridge</t>
@@ -1258,7 +1258,7 @@
     <t>Rail Road Crossing</t>
   </si>
   <si>
-    <t>LRP092a _B</t>
+    <t>LRP092a_B</t>
   </si>
   <si>
     <t>Paduar Bazar Bridge</t>
@@ -1288,7 +1288,7 @@
     <t>LRP096</t>
   </si>
   <si>
-    <t>LRP094a _B</t>
+    <t>LRP094a_B</t>
   </si>
   <si>
     <t>Mostapur Bridge</t>
@@ -1324,7 +1324,7 @@
     <t>LRP100</t>
   </si>
   <si>
-    <t>LRP098a _B</t>
+    <t>LRP098a_B</t>
   </si>
   <si>
     <t>Matigara Bridge</t>
@@ -1354,7 +1354,7 @@
     <t>LRP103</t>
   </si>
   <si>
-    <t>LRP101a _B</t>
+    <t>LRP101a_B</t>
   </si>
   <si>
     <t>Suagazi Bridge.</t>
@@ -1381,7 +1381,7 @@
     <t>LRP106</t>
   </si>
   <si>
-    <t>LRP104a _B</t>
+    <t>LRP104a_B</t>
   </si>
   <si>
     <t>LAL BAG RCC GIDER BRIDGE</t>
@@ -1393,7 +1393,7 @@
     <t>LRP107</t>
   </si>
   <si>
-    <t>LRP105a _B</t>
+    <t>LRP105a_B</t>
   </si>
   <si>
     <t>CHANSIRI BOXCUIVERT</t>
@@ -1417,7 +1417,7 @@
     <t>LRP109</t>
   </si>
   <si>
-    <t>LRP107a _B</t>
+    <t>LRP107a_B</t>
   </si>
   <si>
     <t>MIABAZAR BOX CULVERT</t>
@@ -1432,7 +1432,7 @@
     <t>LRP110b</t>
   </si>
   <si>
-    <t>LRP109a _B</t>
+    <t>LRP109a_B</t>
   </si>
   <si>
     <t>NOYA BAZER BOX CULVERT</t>
@@ -1453,7 +1453,7 @@
     <t>LRP112</t>
   </si>
   <si>
-    <t>LRP110a _B</t>
+    <t>LRP110a_B</t>
   </si>
   <si>
     <t>DOLL BARI CULVERT</t>
@@ -1462,7 +1462,7 @@
     <t>LRP112a</t>
   </si>
   <si>
-    <t>LRP110c _B</t>
+    <t>LRP110c_B</t>
   </si>
   <si>
     <t>DHARMA PUR SLAB CULVERT</t>
@@ -1471,7 +1471,7 @@
     <t>LRP113</t>
   </si>
   <si>
-    <t>LRP111a _B</t>
+    <t>LRP111a_B</t>
   </si>
   <si>
     <t>LALGORE BEZER CULVERT</t>
@@ -1486,7 +1486,7 @@
     <t>LRP114</t>
   </si>
   <si>
-    <t>LRP112a _B</t>
+    <t>LRP112a_B</t>
   </si>
   <si>
     <t>SUPUYA BOX CULVERT</t>
@@ -1498,7 +1498,7 @@
     <t>LRP115</t>
   </si>
   <si>
-    <t>LRP113a _B</t>
+    <t>LRP113a_B</t>
   </si>
   <si>
     <t>BOWCHI BAZAR CULVERT</t>
@@ -1510,7 +1510,7 @@
     <t>LRP116</t>
   </si>
   <si>
-    <t>LRP114a _B</t>
+    <t>LRP114a_B</t>
   </si>
   <si>
     <t>AMAN GONG SLAB CULVERT</t>
@@ -1528,7 +1528,7 @@
     <t>LRP117c</t>
   </si>
   <si>
-    <t>LRP116a _B</t>
+    <t>LRP116a_B</t>
   </si>
   <si>
     <t>RANGAMATIA (1) BOX CULVERT</t>
@@ -1537,7 +1537,7 @@
     <t>LRP118</t>
   </si>
   <si>
-    <t>LRP116b _B</t>
+    <t>LRP116b_B</t>
   </si>
   <si>
     <t>RANGOWATIA 2 CULVERT</t>
@@ -1546,13 +1546,13 @@
     <t>LRP118a</t>
   </si>
   <si>
-    <t>LRP116c _B</t>
+    <t>LRP116c_B</t>
   </si>
   <si>
     <t>NOWA PARA BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP117a _B</t>
+    <t>LRP117a_B</t>
   </si>
   <si>
     <t>HARISHARDE CULVERT</t>
@@ -1573,7 +1573,7 @@
     <t>LRP119d</t>
   </si>
   <si>
-    <t>LRP118a _B</t>
+    <t>LRP118a_B</t>
   </si>
   <si>
     <t>SONAGATI BOX CULVERT</t>
@@ -1582,7 +1582,7 @@
     <t>LRP120</t>
   </si>
   <si>
-    <t>LRP118b _B</t>
+    <t>LRP118b_B</t>
   </si>
   <si>
     <t>BALUJURI BOX CULVERT</t>
@@ -1591,13 +1591,13 @@
     <t>LRP120a</t>
   </si>
   <si>
-    <t>LRP118d _B</t>
+    <t>LRP118d_B</t>
   </si>
   <si>
     <t>BALUZURI 2 CULVERT</t>
   </si>
   <si>
-    <t>LRP119a _B</t>
+    <t>LRP119a_B</t>
   </si>
   <si>
     <t>KALIR BAZAR BOX CULVERT</t>
@@ -1612,7 +1612,7 @@
     <t>LRP121a</t>
   </si>
   <si>
-    <t>LRP119b _B</t>
+    <t>LRP119b_B</t>
   </si>
   <si>
     <t>KALIA BAZER BOC CULVERT</t>
@@ -1621,7 +1621,7 @@
     <t>LRP121b</t>
   </si>
   <si>
-    <t>LRP120a _B</t>
+    <t>LRP120a_B</t>
   </si>
   <si>
     <t>CHAUDDAGARAM BOX CULVERT</t>
@@ -1630,7 +1630,7 @@
     <t>LRP122</t>
   </si>
   <si>
-    <t>LRP120b _B</t>
+    <t>LRP120b_B</t>
   </si>
   <si>
     <t>CHADDAGRAM BAZAR BOX CULVERT</t>
@@ -1648,7 +1648,7 @@
     <t>LRP123</t>
   </si>
   <si>
-    <t>LRP121b _B</t>
+    <t>LRP121b_B</t>
   </si>
   <si>
     <t>HAYDAR POLE BOX CULVERT</t>
@@ -1660,7 +1660,7 @@
     <t>LRP124</t>
   </si>
   <si>
-    <t>LRP122a _B</t>
+    <t>LRP122a_B</t>
   </si>
   <si>
     <t>FALGUNCORA CULVERT</t>
@@ -1672,7 +1672,7 @@
     <t>LRP125</t>
   </si>
   <si>
-    <t>LRP123a _B</t>
+    <t>LRP123a_B</t>
   </si>
   <si>
     <t>ATTOCK GRAM BOX CULVERT</t>
@@ -1684,7 +1684,7 @@
     <t>LRP126</t>
   </si>
   <si>
-    <t>LRP124a _B</t>
+    <t>LRP124a_B</t>
   </si>
   <si>
     <t>BOSONTA PUR BOX CULVERT</t>
@@ -1699,7 +1699,7 @@
     <t>LRP127</t>
   </si>
   <si>
-    <t>LRP125a _B</t>
+    <t>LRP125a_B</t>
   </si>
   <si>
     <t>BASHONTA PUR (2)</t>
@@ -1714,7 +1714,7 @@
     <t>Ctg 133 km</t>
   </si>
   <si>
-    <t>LRP126a _B</t>
+    <t>LRP126a_B</t>
   </si>
   <si>
     <t>NANKORA BOX CULVERT</t>
@@ -1729,7 +1729,7 @@
     <t>LRP129</t>
   </si>
   <si>
-    <t>LRP127a _B</t>
+    <t>LRP127a_B</t>
   </si>
   <si>
     <t>ANDAJER BAZER BOX CULVERT</t>
@@ -1741,7 +1741,7 @@
     <t>LRP130</t>
   </si>
   <si>
-    <t>LRP128a _B</t>
+    <t>LRP128a_B</t>
   </si>
   <si>
     <t>DIMATOLI (1) BOX CULVERT</t>
@@ -1759,7 +1759,7 @@
     <t>LRP131</t>
   </si>
   <si>
-    <t>LRP129a _B</t>
+    <t>LRP129a_B</t>
   </si>
   <si>
     <t>DIMATOLY (2) BOX CULVERT</t>
@@ -1768,7 +1768,7 @@
     <t>LRP131a</t>
   </si>
   <si>
-    <t>LRP130a _B</t>
+    <t>LRP130a_B</t>
   </si>
   <si>
     <t>JAGARNATHPUR BOX CULVERT</t>
@@ -1780,7 +1780,7 @@
     <t>LRP132a</t>
   </si>
   <si>
-    <t>LRP131a _B</t>
+    <t>LRP131a_B</t>
   </si>
   <si>
     <t>JAGOT PUR BOX CULVERT</t>
@@ -1792,7 +1792,7 @@
     <t>LRP133a</t>
   </si>
   <si>
-    <t>LRP131b _B</t>
+    <t>LRP131b_B</t>
   </si>
   <si>
     <t>HASO BOTHACH BOX CULVERT</t>
@@ -1804,7 +1804,7 @@
     <t>LRP134</t>
   </si>
   <si>
-    <t>LRP132a _B</t>
+    <t>LRP132a_B</t>
   </si>
   <si>
     <t>FOKIR BAZAR SLAB CULVERT</t>
@@ -1819,7 +1819,7 @@
     <t>Ctg 127 km,Feni 16 km</t>
   </si>
   <si>
-    <t>LRP133a _B</t>
+    <t>LRP133a_B</t>
   </si>
   <si>
     <t>KAKKARA CULVERT</t>
@@ -1831,7 +1831,7 @@
     <t>LRP136a</t>
   </si>
   <si>
-    <t>LRP134a _B</t>
+    <t>LRP134a_B</t>
   </si>
   <si>
     <t>Chanara Box Culvert</t>
@@ -1843,7 +1843,7 @@
     <t>LRP137</t>
   </si>
   <si>
-    <t>LRP135a _B</t>
+    <t>LRP135a_B</t>
   </si>
   <si>
     <t>CHANGARPULL(II) BOX CULVERT</t>
@@ -1852,7 +1852,7 @@
     <t>LRP137a</t>
   </si>
   <si>
-    <t>LRP135b _B</t>
+    <t>LRP135b_B</t>
   </si>
   <si>
     <t>ADONCORA</t>
@@ -1864,7 +1864,7 @@
     <t>LRP138</t>
   </si>
   <si>
-    <t>LRP136a _B</t>
+    <t>LRP136a_B</t>
   </si>
   <si>
     <t>PODOYA BOX CULVERT</t>
@@ -1876,7 +1876,7 @@
     <t>LRP139</t>
   </si>
   <si>
-    <t>LRP136c _B</t>
+    <t>LRP136c_B</t>
   </si>
   <si>
     <t>FOEALTPARA BOX CULVERT</t>
@@ -1888,7 +1888,7 @@
     <t>Box culvertt</t>
   </si>
   <si>
-    <t>LRP137a _B</t>
+    <t>LRP137a_B</t>
   </si>
   <si>
     <t>UTTOR KAIEATI CULVERT</t>
@@ -1906,7 +1906,7 @@
     <t>Ctg 122 km</t>
   </si>
   <si>
-    <t>LRP137b _B</t>
+    <t>LRP137b_B</t>
   </si>
   <si>
     <t>KOKALI BOX CULVERT</t>
@@ -1918,7 +1918,7 @@
     <t>LRP141</t>
   </si>
   <si>
-    <t>LRP138a _B</t>
+    <t>LRP138a_B</t>
   </si>
   <si>
     <t>DUTHOSHA BOX CULVERT</t>
@@ -1945,7 +1945,7 @@
     <t>Road to Karerhat (Z1031)</t>
   </si>
   <si>
-    <t>LRP140a _B</t>
+    <t>LRP140a_B</t>
   </si>
   <si>
     <t>MOHAMMAD ALI MAZAR</t>
@@ -1975,7 +1975,7 @@
     <t>LRP144b</t>
   </si>
   <si>
-    <t>LRP142a _B</t>
+    <t>LRP142a_B</t>
   </si>
   <si>
     <t>FATAPUR BOX CULVERT</t>
@@ -1987,7 +1987,7 @@
     <t>LRP145a</t>
   </si>
   <si>
-    <t>LRP143a _B</t>
+    <t>LRP143a_B</t>
   </si>
   <si>
     <t>DEBIPUR SLAB CULVERT</t>
@@ -2020,7 +2020,7 @@
     <t>LRP148</t>
   </si>
   <si>
-    <t>LRP145a _B</t>
+    <t>LRP145a_B</t>
   </si>
   <si>
     <t>CHARIPUR CULVERT.</t>
@@ -2041,7 +2041,7 @@
     <t>Ctg 95 km</t>
   </si>
   <si>
-    <t>LRP148a _B</t>
+    <t>LRP148a_B</t>
   </si>
   <si>
     <t>RAMPUR BOX CULVERT</t>
@@ -2056,19 +2056,19 @@
     <t>LRP151b</t>
   </si>
   <si>
-    <t>LRP149a _B</t>
+    <t>LRP149a_B</t>
   </si>
   <si>
     <t>Rampur Bridge(L)</t>
   </si>
   <si>
-    <t>LRP149b _B</t>
+    <t>LRP149b_B</t>
   </si>
   <si>
     <t>Rampur Bridge(R)</t>
   </si>
   <si>
-    <t>LRP149c _B</t>
+    <t>LRP149c_B</t>
   </si>
   <si>
     <t>LRP152</t>
@@ -2110,7 +2110,7 @@
     <t>LRP156b</t>
   </si>
   <si>
-    <t>LRP155a _B</t>
+    <t>LRP155a_B</t>
   </si>
   <si>
     <t>Lemua Bridge(L)</t>
@@ -2143,7 +2143,7 @@
     <t>LRP161</t>
   </si>
   <si>
-    <t>LRP159a _B</t>
+    <t>LRP159a_B</t>
   </si>
   <si>
     <t>FAZAILPUR BOXCULVERT</t>
@@ -2161,7 +2161,7 @@
     <t>LRP163a</t>
   </si>
   <si>
-    <t>LRP161a _B</t>
+    <t>LRP161a_B</t>
   </si>
   <si>
     <t>MUHURI BRIDGE</t>
@@ -2197,7 +2197,7 @@
     <t>LRP168a</t>
   </si>
   <si>
-    <t>LRP166a _B</t>
+    <t>LRP166a_B</t>
   </si>
   <si>
     <t>DHOOM GHAT PC GIRDER</t>
@@ -2212,7 +2212,7 @@
     <t>Bridge end/Start of Chittagong Road Division / Bridge end/Start of Chittagong Road Division</t>
   </si>
   <si>
-    <t>LRP166c _B</t>
+    <t>LRP166c_B</t>
   </si>
   <si>
     <t>BUMGAT BOXCULVERT</t>
@@ -2224,7 +2224,7 @@
     <t>LRP169a</t>
   </si>
   <si>
-    <t>LRP167a _B</t>
+    <t>LRP167a_B</t>
   </si>
   <si>
     <t>BOROYAR PARA SLUB CULVERT</t>
@@ -2254,15 +2254,15 @@
     <t>LRP170d</t>
   </si>
   <si>
-    <t>LRP169a _B</t>
+    <t>LRP171</t>
+  </si>
+  <si>
+    <t>LRP169a_B</t>
   </si>
   <si>
     <t>BAROYARHAT BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP171</t>
-  </si>
-  <si>
     <t>LRP172</t>
   </si>
   <si>
@@ -2275,7 +2275,7 @@
     <t>LRP172b</t>
   </si>
   <si>
-    <t>LRP171a _B</t>
+    <t>LRP171a_B</t>
   </si>
   <si>
     <t>UTTOR SONAPAR BOX CULVERT</t>
@@ -2287,7 +2287,7 @@
     <t>LRP173a</t>
   </si>
   <si>
-    <t>LRP171b _B</t>
+    <t>LRP171b_B</t>
   </si>
   <si>
     <t>CHAIRMEN BARI BOX CULVERT</t>
@@ -2296,7 +2296,7 @@
     <t>LRP173b</t>
   </si>
   <si>
-    <t>LRP171c _B</t>
+    <t>LRP171c_B</t>
   </si>
   <si>
     <t>MADDAM SONAPAR(1) BOX CULVERT</t>
@@ -2308,7 +2308,7 @@
     <t>LRP174a</t>
   </si>
   <si>
-    <t>LRP172a _B</t>
+    <t>LRP172a_B</t>
   </si>
   <si>
     <t>DHARBAR TILA CULVERT</t>
@@ -2317,7 +2317,7 @@
     <t>LRP174b</t>
   </si>
   <si>
-    <t>LRP172b _B</t>
+    <t>LRP172b_B</t>
   </si>
   <si>
     <t>MADDUM SONAPHAR-3</t>
@@ -2326,7 +2326,7 @@
     <t>LRP175</t>
   </si>
   <si>
-    <t>LRP173a _B</t>
+    <t>LRP173a_B</t>
   </si>
   <si>
     <t>MAMAFOUN ASTANA CULVERT</t>
@@ -2335,7 +2335,7 @@
     <t>LRP175a</t>
   </si>
   <si>
-    <t>LRP173b _B</t>
+    <t>LRP173b_B</t>
   </si>
   <si>
     <t>MAMAFAKIR ASTANA SLAB CULVERT</t>
@@ -2347,7 +2347,7 @@
     <t>LRP176</t>
   </si>
   <si>
-    <t>LRP174a _B</t>
+    <t>LRP174a_B</t>
   </si>
   <si>
     <t>MASTANNAGOR BONCUL(1)</t>
@@ -2359,7 +2359,7 @@
     <t>LRP176b</t>
   </si>
   <si>
-    <t>LRP174b _B</t>
+    <t>LRP174b_B</t>
   </si>
   <si>
     <t>MUSTAU NOGAR(2)</t>
@@ -2368,7 +2368,7 @@
     <t>LRP176c</t>
   </si>
   <si>
-    <t>LRP174c _B</t>
+    <t>LRP174c_B</t>
   </si>
   <si>
     <t>MASTARI HAGOR 3 CULVERT</t>
@@ -2377,7 +2377,7 @@
     <t>LRP176d</t>
   </si>
   <si>
-    <t>LRP175a _B</t>
+    <t>LRP175a_B</t>
   </si>
   <si>
     <t>MUSTAN NAGAR -4</t>
@@ -2392,7 +2392,7 @@
     <t>Pipe culvert</t>
   </si>
   <si>
-    <t>LRP175b _B</t>
+    <t>LRP175b_B</t>
   </si>
   <si>
     <t>RAIPUR BOX CUL-1</t>
@@ -2401,13 +2401,13 @@
     <t>LRP178</t>
   </si>
   <si>
-    <t>LRP176a _B</t>
+    <t>LRP176a_B</t>
   </si>
   <si>
     <t>RAIPUR (2) BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP176b _B</t>
+    <t>LRP176b_B</t>
   </si>
   <si>
     <t>PURPU DURGAPURE BOX CUL</t>
@@ -2422,7 +2422,7 @@
     <t>LRP180</t>
   </si>
   <si>
-    <t>LRP179a _B</t>
+    <t>LRP179a_B</t>
   </si>
   <si>
     <t>MUCHIPOOL CULVERT</t>
@@ -2446,7 +2446,7 @@
     <t>LRP182</t>
   </si>
   <si>
-    <t>LRP181a _B</t>
+    <t>LRP181a_B</t>
   </si>
   <si>
     <t>MIRSARAI BOX CUL</t>
@@ -2461,7 +2461,7 @@
     <t>LRP183</t>
   </si>
   <si>
-    <t>LRP182a _B</t>
+    <t>LRP182a_B</t>
   </si>
   <si>
     <t>MIRAISORI BRIDGE</t>
@@ -2482,7 +2482,7 @@
     <t>Road to Narayanhat (Z1021)</t>
   </si>
   <si>
-    <t>LRP183b _B</t>
+    <t>LRP183b_B</t>
   </si>
   <si>
     <t>Mirsorai(2) box culvert</t>
@@ -2494,7 +2494,7 @@
     <t>LRP185</t>
   </si>
   <si>
-    <t>LRP184a _B</t>
+    <t>LRP184a_B</t>
   </si>
   <si>
     <t>IANAINIPOL BOX CULVERT.</t>
@@ -2509,7 +2509,7 @@
     <t>LRP186</t>
   </si>
   <si>
-    <t>LRP185a _B</t>
+    <t>LRP185a_B</t>
   </si>
   <si>
     <t>BOKIMTOLA BOX CULVERT</t>
@@ -2521,7 +2521,7 @@
     <t>LRP187</t>
   </si>
   <si>
-    <t>LRP186a _B</t>
+    <t>LRP186a_B</t>
   </si>
   <si>
     <t>VARTAKA BOX CULVERT</t>
@@ -2536,7 +2536,7 @@
     <t>LRP188</t>
   </si>
   <si>
-    <t>LRP187a _B</t>
+    <t>LRP187a_B</t>
   </si>
   <si>
     <t>VARTAGIA BOX CULVERT</t>
@@ -2545,7 +2545,7 @@
     <t>LRP188a</t>
   </si>
   <si>
-    <t>LRP187b _B</t>
+    <t>LRP187b_B</t>
   </si>
   <si>
     <t>BOTHAGIA (-3) BOX CULVERT</t>
@@ -2566,7 +2566,7 @@
     <t>LRP191</t>
   </si>
   <si>
-    <t>LRP190a _B</t>
+    <t>LRP190a_B</t>
   </si>
   <si>
     <t>NIAZAMPUR BOX CULVERT</t>
@@ -2578,13 +2578,13 @@
     <t>LRP192</t>
   </si>
   <si>
-    <t>LRP191a _B</t>
+    <t>LRP191a_B</t>
   </si>
   <si>
     <t>MIRJAPUR BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP191b _B</t>
+    <t>LRP191b_B</t>
   </si>
   <si>
     <t>MIRZAPUR (2) BOX CULVERT</t>
@@ -2602,7 +2602,7 @@
     <t>Ctg 52 km,Sitakhada 12 km</t>
   </si>
   <si>
-    <t>LRP191c _B</t>
+    <t>LRP191c_B</t>
   </si>
   <si>
     <t>ISAMATI BOX CULVERT</t>
@@ -2623,7 +2623,7 @@
     <t>LRP194b</t>
   </si>
   <si>
-    <t>LRP193a _B</t>
+    <t>LRP193a_B</t>
   </si>
   <si>
     <t>DUKHIN UTHPAR BOX CULVERT</t>
@@ -2641,7 +2641,7 @@
     <t>LRP195a</t>
   </si>
   <si>
-    <t>LRP194a _B</t>
+    <t>LRP194a_B</t>
   </si>
   <si>
     <t>VANGGARPOL BOX CULVERT</t>
@@ -2653,7 +2653,7 @@
     <t>LRP196a</t>
   </si>
   <si>
-    <t>LRP195a _B</t>
+    <t>LRP195a_B</t>
   </si>
   <si>
     <t>BORO KAMALDA BOX CULVERT</t>
@@ -2668,7 +2668,7 @@
     <t>Ctg 48 km,Sitakanda 8 km</t>
   </si>
   <si>
-    <t>LRP196a _B</t>
+    <t>LRP196a_B</t>
   </si>
   <si>
     <t>TARAT BOX CULVERT</t>
@@ -2692,7 +2692,7 @@
     <t>LRP198b</t>
   </si>
   <si>
-    <t>LRP197a _B</t>
+    <t>LRP197a_B</t>
   </si>
   <si>
     <t>Tarial Bazar Culvert</t>
@@ -2701,7 +2701,7 @@
     <t>LRP198c</t>
   </si>
   <si>
-    <t>LRP197b _B</t>
+    <t>LRP197b_B</t>
   </si>
   <si>
     <t>MIRJA PUR (3) BOX CULVERT</t>
@@ -2716,7 +2716,7 @@
     <t>LRP199a</t>
   </si>
   <si>
-    <t>LRP198a _B</t>
+    <t>LRP198a_B</t>
   </si>
   <si>
     <t>SATU DURUAR HAT BOX CULVERT</t>
@@ -2728,7 +2728,7 @@
     <t>LRP200</t>
   </si>
   <si>
-    <t>LRP199a _B</t>
+    <t>LRP199a_B</t>
   </si>
   <si>
     <t>RONA SORA CULVERT</t>
@@ -2740,7 +2740,7 @@
     <t>LRP200b</t>
   </si>
   <si>
-    <t>LRP199b _B</t>
+    <t>LRP199b_B</t>
   </si>
   <si>
     <t>NUNA CHARA BOX CULVERT</t>
@@ -2755,7 +2755,7 @@
     <t>LRP201a</t>
   </si>
   <si>
-    <t>LRP199c _B</t>
+    <t>LRP199c_B</t>
   </si>
   <si>
     <t>BOTTOL BOX CULVERT</t>
@@ -2767,13 +2767,13 @@
     <t>LRP202</t>
   </si>
   <si>
-    <t>LRP201a _B</t>
+    <t>LRP201a_B</t>
   </si>
   <si>
     <t>KACHAI PATH BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP201b _B</t>
+    <t>LRP201b_B</t>
   </si>
   <si>
     <t>KACHAI POTTI BOX CULVERT</t>
@@ -2791,7 +2791,7 @@
     <t>LRP203a</t>
   </si>
   <si>
-    <t>LRP202a _B</t>
+    <t>LRP202a_B</t>
   </si>
   <si>
     <t>EGOL PUR BOX CULVERT</t>
@@ -2800,7 +2800,7 @@
     <t>LRP203b</t>
   </si>
   <si>
-    <t>LRP202b _B</t>
+    <t>LRP202b_B</t>
   </si>
   <si>
     <t>UTTOR SITAKONDO BAZAR BOX CULVERT</t>
@@ -2812,7 +2812,7 @@
     <t>LRP204a</t>
   </si>
   <si>
-    <t>LRP203a _B</t>
+    <t>LRP203a_B</t>
   </si>
   <si>
     <t>SITAKUNDA SLAB</t>
@@ -2833,7 +2833,7 @@
     <t>Bridge end / Box culvert</t>
   </si>
   <si>
-    <t>LRP203b _B</t>
+    <t>LRP203b_B</t>
   </si>
   <si>
     <t>MOHADAB PUR BOX CULVERT</t>
@@ -2851,7 +2851,7 @@
     <t>LRP205a</t>
   </si>
   <si>
-    <t>LRP204a _B</t>
+    <t>LRP204a_B</t>
   </si>
   <si>
     <t>PURBOMOHADAB PUR SLAB CULVERT(L)</t>
@@ -2860,7 +2860,7 @@
     <t>LRP205b</t>
   </si>
   <si>
-    <t>LRP205a _B</t>
+    <t>LRP205a_B</t>
   </si>
   <si>
     <t>MADICAL MORE CULVERT</t>
@@ -2872,13 +2872,13 @@
     <t>LRP206a</t>
   </si>
   <si>
-    <t>LRP206a _B</t>
+    <t>LRP206a_B</t>
   </si>
   <si>
     <t>DOKHIN MOHADEB PUR BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP206b _B</t>
+    <t>LRP206b_B</t>
   </si>
   <si>
     <t>KALIAVA BOX CULVERT</t>
@@ -2899,7 +2899,7 @@
     <t>LRP207c</t>
   </si>
   <si>
-    <t>LRP206c _B</t>
+    <t>LRP206c_B</t>
   </si>
   <si>
     <t>SKM BOX CULVERT(1)</t>
@@ -2911,7 +2911,7 @@
     <t>LRP208</t>
   </si>
   <si>
-    <t>LRP207a _B</t>
+    <t>LRP207a_B</t>
   </si>
   <si>
     <t>HATILOTA BOX CULVERT</t>
@@ -2920,7 +2920,7 @@
     <t>LRP208a</t>
   </si>
   <si>
-    <t>LRP208a _B</t>
+    <t>LRP208a_B</t>
   </si>
   <si>
     <t>BAROCONDO BRIDGE</t>
@@ -2938,7 +2938,7 @@
     <t>LRP209b</t>
   </si>
   <si>
-    <t>LRP208d _B</t>
+    <t>LRP208d_B</t>
   </si>
   <si>
     <t>BAROGINDO CULVERT</t>
@@ -2953,7 +2953,7 @@
     <t>LRP209d</t>
   </si>
   <si>
-    <t>LRP209a _B</t>
+    <t>LRP209a_B</t>
   </si>
   <si>
     <t>BARO-CUNDHOW BOX CULVERT</t>
@@ -2968,13 +2968,13 @@
     <t>LRP210b</t>
   </si>
   <si>
-    <t>LRP210a _B</t>
+    <t>LRP210a_B</t>
   </si>
   <si>
     <t>PHPMORE BON CULVERT</t>
   </si>
   <si>
-    <t>LRP210b _B</t>
+    <t>LRP210b_B</t>
   </si>
   <si>
     <t>CHARA KANDI BOX CULVERT</t>
@@ -2986,7 +2986,7 @@
     <t>LRP211a</t>
   </si>
   <si>
-    <t>LRP210d _B</t>
+    <t>LRP210d_B</t>
   </si>
   <si>
     <t>R. R TEXTAIL BOX CULVERT</t>
@@ -3004,13 +3004,13 @@
     <t>LRP212</t>
   </si>
   <si>
-    <t>LRP211a _B</t>
+    <t>LRP211a_B</t>
   </si>
   <si>
     <t>OHIDPUR BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP212a _B</t>
+    <t>LRP212a_B</t>
   </si>
   <si>
     <t>BARSH BARIA BRIDGE</t>
@@ -3028,13 +3028,13 @@
     <t>LRP213b</t>
   </si>
   <si>
-    <t>LRP213a _B</t>
+    <t>LRP213a_B</t>
   </si>
   <si>
     <t>SOUTH BALSH KHALI BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP213b _B</t>
+    <t>LRP213b_B</t>
   </si>
   <si>
     <t>DOKHIN BASH-KHALI BOX CULVERT</t>
@@ -3046,7 +3046,7 @@
     <t>LRP214a</t>
   </si>
   <si>
-    <t>LRP214a _B</t>
+    <t>LRP214a_B</t>
   </si>
   <si>
     <t>SOTTANA MONDIR CULVERT</t>
@@ -3061,7 +3061,7 @@
     <t>LRP215a</t>
   </si>
   <si>
-    <t>LRP215a _B</t>
+    <t>LRP215a_B</t>
   </si>
   <si>
     <t>GULAM JUTE MILE BOX CULVERT</t>
@@ -3070,7 +3070,7 @@
     <t>LRP216</t>
   </si>
   <si>
-    <t>LRP215b _B</t>
+    <t>LRP215b_B</t>
   </si>
   <si>
     <t>KYSTELGATE ARCH</t>
@@ -3103,7 +3103,7 @@
     <t>LRP217e</t>
   </si>
   <si>
-    <t>LRP217a _B</t>
+    <t>LRP217a_B</t>
   </si>
   <si>
     <t>BORO KUMIRA BRIDGE</t>
@@ -3124,7 +3124,7 @@
     <t>LRP218d</t>
   </si>
   <si>
-    <t>LRP218a _B</t>
+    <t>LRP218a_B</t>
   </si>
   <si>
     <t>ROYL CIMINT GATE CULVETRT</t>
@@ -3136,7 +3136,7 @@
     <t>LRP219</t>
   </si>
   <si>
-    <t>LRP218b _B</t>
+    <t>LRP218b_B</t>
   </si>
   <si>
     <t>GORA MARA RCC GIRDER BRIDGE</t>
@@ -3151,7 +3151,7 @@
     <t>LRP220</t>
   </si>
   <si>
-    <t>LRP219a _B</t>
+    <t>LRP219a_B</t>
   </si>
   <si>
     <t>GORA MARI BOX CULVERT</t>
@@ -3160,7 +3160,7 @@
     <t>LRP220a</t>
   </si>
   <si>
-    <t>LRP220a _B</t>
+    <t>LRP220a_B</t>
   </si>
   <si>
     <t>BARAOWLLA BOX CULVERT</t>
@@ -3175,7 +3175,7 @@
     <t>LRP221a</t>
   </si>
   <si>
-    <t>LRP220b _B</t>
+    <t>LRP220b_B</t>
   </si>
   <si>
     <t>Baro Aulia</t>
@@ -3193,7 +3193,7 @@
     <t>LRP222</t>
   </si>
   <si>
-    <t>LRP221a _B</t>
+    <t>LRP221a_B</t>
   </si>
   <si>
     <t>HATIBORI BOX CULVERT</t>
@@ -3208,7 +3208,7 @@
     <t>Ctg 22 km</t>
   </si>
   <si>
-    <t>LRP223a _B</t>
+    <t>LRP223a_B</t>
   </si>
   <si>
     <t>Modonhat Bridge</t>
@@ -3226,13 +3226,13 @@
     <t>LRP225</t>
   </si>
   <si>
-    <t>LRP224a _B</t>
+    <t>LRP224a_B</t>
   </si>
   <si>
     <t>KODOM RASUL BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP225a _B</t>
+    <t>LRP225a_B</t>
   </si>
   <si>
     <t>SALAKHARPAD BRIDGE</t>
@@ -3247,13 +3247,13 @@
     <t>LRP226b</t>
   </si>
   <si>
-    <t>LRP226a _B</t>
+    <t>LRP226a_B</t>
   </si>
   <si>
     <t>HASNA BAD BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP226b _B</t>
+    <t>LRP226b_B</t>
   </si>
   <si>
     <t>VATERIE BRIDGE</t>
@@ -3274,7 +3274,7 @@
     <t>LRP228</t>
   </si>
   <si>
-    <t>LRP228a _B</t>
+    <t>LRP228a_B</t>
   </si>
   <si>
     <t>DHAMAKHALI BRIDGE</t>
@@ -3310,7 +3310,7 @@
     <t>LRP231</t>
   </si>
   <si>
-    <t>LRP230a _B</t>
+    <t>LRP230a_B</t>
   </si>
   <si>
     <t>VATIARI CULVERT</t>
@@ -3328,7 +3328,7 @@
     <t>LRP231c</t>
   </si>
   <si>
-    <t>LRP231a _B</t>
+    <t>LRP231a_B</t>
   </si>
   <si>
     <t>T. B HOSPITAL GATE BOX CULVERT</t>
@@ -3343,7 +3343,7 @@
     <t>N111, Port Connecting Road</t>
   </si>
   <si>
-    <t>LRP231b _B</t>
+    <t>LRP231b_B</t>
   </si>
   <si>
     <t>GAMMON BRIDGE</t>
@@ -3361,7 +3361,7 @@
     <t>LRP233</t>
   </si>
   <si>
-    <t>LRP232a _B</t>
+    <t>LRP232a_B</t>
   </si>
   <si>
     <t>PAKKA MATA BOX CULVERT</t>
@@ -3370,7 +3370,7 @@
     <t>LRP233a</t>
   </si>
   <si>
-    <t>LRP233a _B</t>
+    <t>LRP233a_B</t>
   </si>
   <si>
     <t>GLAXO BOX CULVERT</t>
@@ -3385,7 +3385,7 @@
     <t>LRP234b</t>
   </si>
   <si>
-    <t>LRP234a _B</t>
+    <t>LRP234a_B</t>
   </si>
   <si>
     <t>CORNAIL HAT BOX CULVERT</t>
@@ -3418,7 +3418,7 @@
     <t>LRP245a</t>
   </si>
   <si>
-    <t>LRP236a _B</t>
+    <t>LRP236a_B</t>
   </si>
   <si>
     <t>BOALIA BOX CULVERT</t>
@@ -3433,7 +3433,7 @@
     <t>LRP246b</t>
   </si>
   <si>
-    <t>LRP238a _B</t>
+    <t>LRP238a_B</t>
   </si>
   <si>
     <t>BAKULIA BRIDGE</t>
@@ -3448,7 +3448,7 @@
     <t>LRP247b</t>
   </si>
   <si>
-    <t>LRP239a _B</t>
+    <t>LRP239a_B</t>
   </si>
   <si>
     <t>5 No hafez bazar Bridge</t>
@@ -3469,13 +3469,13 @@
     <t>LRP248d</t>
   </si>
   <si>
-    <t>LRP240a _B</t>
+    <t>LRP240a_B</t>
   </si>
   <si>
     <t>Tulatuli Bridge</t>
   </si>
   <si>
-    <t>LRP240c _B</t>
+    <t>LRP240c_B</t>
   </si>
   <si>
     <t>Rajakhali Bridge</t>
@@ -3490,7 +3490,7 @@
     <t>Shah Amanath (Karnaphuli) Bridge</t>
   </si>
   <si>
-    <t>LRP241a _B</t>
+    <t>LRP241a_B</t>
   </si>
   <si>
     <t>Hajrath Sha Amanath Satu</t>
@@ -3514,7 +3514,7 @@
     <t>Cox,s Bazar 143 km,Patiya 16 km</t>
   </si>
   <si>
-    <t>LRP242b _B</t>
+    <t>LRP242b_B</t>
   </si>
   <si>
     <t>SHIKALBAHA BRIDGE</t>
@@ -3544,7 +3544,7 @@
     <t>Cox's Bazar 142 km</t>
   </si>
   <si>
-    <t>LRP243b _B</t>
+    <t>LRP243b_B</t>
   </si>
   <si>
     <t>SHIKALBAHA</t>
@@ -3553,7 +3553,7 @@
     <t>LRP252a</t>
   </si>
   <si>
-    <t>LRP244a _B</t>
+    <t>LRP244a_B</t>
   </si>
   <si>
     <t>SOUTH MITTACHORI</t>
@@ -3562,7 +3562,7 @@
     <t>LRP252b</t>
   </si>
   <si>
-    <t>LRP244b _B</t>
+    <t>LRP244b_B</t>
   </si>
   <si>
     <t>SHIKALBAHA BOX CULVERT</t>
@@ -3574,7 +3574,7 @@
     <t>Cox's Bazar 141km</t>
   </si>
   <si>
-    <t>LRP244c _B</t>
+    <t>LRP244c_B</t>
   </si>
   <si>
     <t>KADUMTOLI CULVERT</t>
@@ -3583,7 +3583,7 @@
     <t>LRP253a</t>
   </si>
   <si>
-    <t>LRP245a _B</t>
+    <t>LRP245a_B</t>
   </si>
   <si>
     <t>ISLAMPUR CULVERT</t>
@@ -3601,7 +3601,7 @@
     <t>Road to Arowana (Z1018)</t>
   </si>
   <si>
-    <t>LRP245b _B</t>
+    <t>LRP245b_B</t>
   </si>
   <si>
     <t>NOLBILA CULVERT</t>
@@ -3610,7 +3610,7 @@
     <t>LRP254b</t>
   </si>
   <si>
-    <t>LRP246a _B</t>
+    <t>LRP246a_B</t>
   </si>
   <si>
     <t>SHIKALBAHA MORE</t>
@@ -3619,7 +3619,7 @@
     <t>LRP254c</t>
   </si>
   <si>
-    <t>LRP246b _B</t>
+    <t>LRP246b_B</t>
   </si>
   <si>
     <t>LRP254d</t>
@@ -3634,7 +3634,7 @@
     <t>LRP255a</t>
   </si>
   <si>
-    <t>LRP247a _B</t>
+    <t>LRP247a_B</t>
   </si>
   <si>
     <t>LRP255b</t>
@@ -3646,7 +3646,7 @@
     <t>Cox's Bazar 138 km</t>
   </si>
   <si>
-    <t>LRP248a _B</t>
+    <t>LRP248a_B</t>
   </si>
   <si>
     <t>SHANTERHAT CULVERT</t>
@@ -3667,7 +3667,7 @@
     <t>LRP257a</t>
   </si>
   <si>
-    <t>LRP249a _B</t>
+    <t>LRP249a_B</t>
   </si>
   <si>
     <t>SHANTERHAT BOX CULVERT</t>
@@ -3682,7 +3682,7 @@
     <t>LRP258a</t>
   </si>
   <si>
-    <t>LRP250a _B</t>
+    <t>LRP250a_B</t>
   </si>
   <si>
     <t>KUSUMPUR BOX CULVERT</t>
@@ -3697,7 +3697,7 @@
     <t>LRP259a</t>
   </si>
   <si>
-    <t>LRP251a _B</t>
+    <t>LRP251a_B</t>
   </si>
   <si>
     <t>MUNSHA BOX CULVERT(L)</t>
@@ -3715,7 +3715,7 @@
     <t>LRP260a</t>
   </si>
   <si>
-    <t>LRP252a _B</t>
+    <t>LRP252a_B</t>
   </si>
   <si>
     <t>MONSHA CULVERT</t>
@@ -3730,7 +3730,7 @@
     <t>Road to Kalurghat (N107)</t>
   </si>
   <si>
-    <t>LRP252c _B</t>
+    <t>LRP252c_B</t>
   </si>
   <si>
     <t>UTTOR SONAPUR</t>
@@ -3742,7 +3742,7 @@
     <t>LRP261a</t>
   </si>
   <si>
-    <t>LRP253a _B</t>
+    <t>LRP253a_B</t>
   </si>
   <si>
     <t>Pirol</t>
@@ -3757,7 +3757,7 @@
     <t>LRP263a</t>
   </si>
   <si>
-    <t>LRP255a _B</t>
+    <t>LRP255a_B</t>
   </si>
   <si>
     <t>UZIRPUR HIGH SCHOOL</t>
@@ -3778,7 +3778,7 @@
     <t>LRP266</t>
   </si>
   <si>
-    <t>LRP257a _B</t>
+    <t>LRP257a_B</t>
   </si>
   <si>
     <t>PATIYA BRIDGE</t>
@@ -3817,7 +3817,7 @@
     <t>Road to Anowara (R170)</t>
   </si>
   <si>
-    <t>LRP260a _B</t>
+    <t>LRP260a_B</t>
   </si>
   <si>
     <t>PALYA BUS STATION</t>
@@ -3838,7 +3838,7 @@
     <t>Road to Chandnaisa(Z1039)</t>
   </si>
   <si>
-    <t>LRP261a _B</t>
+    <t>LRP261a_B</t>
   </si>
   <si>
     <t>SRIMI BRIDGE</t>
@@ -3850,7 +3850,7 @@
     <t>LRP270a</t>
   </si>
   <si>
-    <t>LRP262a _B</t>
+    <t>LRP262a_B</t>
   </si>
   <si>
     <t>KOMOLMUNSHE HAT BOX CULVERT</t>
@@ -3865,7 +3865,7 @@
     <t>LRP271b</t>
   </si>
   <si>
-    <t>LRP263b _B</t>
+    <t>LRP263b_B</t>
   </si>
   <si>
     <t>KHORNA CULVERT</t>
@@ -3880,7 +3880,7 @@
     <t>LRP272b</t>
   </si>
   <si>
-    <t>LRP264a _B</t>
+    <t>LRP264a_B</t>
   </si>
   <si>
     <t>KHORNA BVS STATION</t>
@@ -3889,7 +3889,7 @@
     <t>LRP272c</t>
   </si>
   <si>
-    <t>LRP264c _B</t>
+    <t>LRP264c_B</t>
   </si>
   <si>
     <t>AJIMPUR CUL</t>
@@ -3901,7 +3901,7 @@
     <t>LRP273a</t>
   </si>
   <si>
-    <t>LRP265a _B</t>
+    <t>LRP265a_B</t>
   </si>
   <si>
     <t>MOJAFFARABAD</t>
@@ -3910,7 +3910,7 @@
     <t>LRP273b</t>
   </si>
   <si>
-    <t>LRP265b _B</t>
+    <t>LRP265b_B</t>
   </si>
   <si>
     <t>MOJAFFORABAD BOX CULVERT</t>
@@ -3922,7 +3922,7 @@
     <t>LRP274a</t>
   </si>
   <si>
-    <t>LRP267a _B</t>
+    <t>LRP267a_B</t>
   </si>
   <si>
     <t>MOJAFFORABAD</t>
@@ -3934,7 +3934,7 @@
     <t>LRP275a</t>
   </si>
   <si>
-    <t>LRP268a _B</t>
+    <t>LRP268a_B</t>
   </si>
   <si>
     <t>ROWSONAT CUL</t>
@@ -3943,7 +3943,7 @@
     <t>LRP275b</t>
   </si>
   <si>
-    <t>LRP268b _B</t>
+    <t>LRP268b_B</t>
   </si>
   <si>
     <t>KANCHANAGAR CUL</t>
@@ -3961,7 +3961,7 @@
     <t>LRP276c</t>
   </si>
   <si>
-    <t>LRP269a _B</t>
+    <t>LRP269a_B</t>
   </si>
   <si>
     <t>Kanchon Nagar Bridge</t>
@@ -3976,7 +3976,7 @@
     <t>LRP277b</t>
   </si>
   <si>
-    <t>LRP269c _B</t>
+    <t>LRP269c_B</t>
   </si>
   <si>
     <t>NORTH JOARA PAKKAR DOKAN</t>
@@ -3985,7 +3985,7 @@
     <t>LRP277c</t>
   </si>
   <si>
-    <t>LRP270a _B</t>
+    <t>LRP270a_B</t>
   </si>
   <si>
     <t>GASBAREA BOX CULVERT</t>
@@ -3997,7 +3997,7 @@
     <t>LRP278a</t>
   </si>
   <si>
-    <t>LRP271a _B</t>
+    <t>LRP271a_B</t>
   </si>
   <si>
     <t>GASBAREA COLLEGE BOX CULVERT</t>
@@ -4018,7 +4018,7 @@
     <t>LRP279b</t>
   </si>
   <si>
-    <t>LRP272a _B</t>
+    <t>LRP272a_B</t>
   </si>
   <si>
     <t>Mazar Point Bridge</t>
@@ -4033,7 +4033,7 @@
     <t>LRP280</t>
   </si>
   <si>
-    <t>LRP272c _B</t>
+    <t>LRP272c_B</t>
   </si>
   <si>
     <t>KHOLGHAR CUL</t>
@@ -4057,7 +4057,7 @@
     <t>LRP283a</t>
   </si>
   <si>
-    <t>LRP276a _B</t>
+    <t>LRP276a_B</t>
   </si>
   <si>
     <t>NOYARHAT</t>
@@ -4075,7 +4075,7 @@
     <t>LRP286a</t>
   </si>
   <si>
-    <t>LRP279a _B</t>
+    <t>LRP279a_B</t>
   </si>
   <si>
     <t>SANGO BRIDGE DOMAJAR</t>
@@ -4093,7 +4093,7 @@
     <t>LRP287b</t>
   </si>
   <si>
-    <t>LRP280a _B</t>
+    <t>LRP280a_B</t>
   </si>
   <si>
     <t>KATGOR CULVERT</t>
@@ -4114,7 +4114,7 @@
     <t>LRP289a</t>
   </si>
   <si>
-    <t>LRP282a _B</t>
+    <t>LRP282a_B</t>
   </si>
   <si>
     <t>MOULOVER DOKAN</t>
@@ -4123,7 +4123,7 @@
     <t>LRP289b</t>
   </si>
   <si>
-    <t>LRP282c _B</t>
+    <t>LRP282c_B</t>
   </si>
   <si>
     <t>PATATR PULL CULVERT</t>
@@ -4141,7 +4141,7 @@
     <t>LRP290b</t>
   </si>
   <si>
-    <t>LRP282e _B</t>
+    <t>LRP282e_B</t>
   </si>
   <si>
     <t>Pathanerpul Bridge</t>
@@ -4153,7 +4153,7 @@
     <t>LRP290d</t>
   </si>
   <si>
-    <t>LRP283a _B</t>
+    <t>LRP283a_B</t>
   </si>
   <si>
     <t>Noyakhalar Muk Bridge</t>
@@ -4165,7 +4165,7 @@
     <t>LRP291a</t>
   </si>
   <si>
-    <t>LRP283c _B</t>
+    <t>LRP283c_B</t>
   </si>
   <si>
     <t>NOYAKHALARMUK</t>
@@ -4174,7 +4174,7 @@
     <t>LRP291b</t>
   </si>
   <si>
-    <t>LRP283d _B</t>
+    <t>LRP283d_B</t>
   </si>
   <si>
     <t>NOYA KHALAR MUK (KARANIERHAT) BOX CULVERT</t>
@@ -4183,7 +4183,7 @@
     <t>LRP292</t>
   </si>
   <si>
-    <t>LRP284a _B</t>
+    <t>LRP284a_B</t>
   </si>
   <si>
     <t>KARANERHAT CULVERT</t>
@@ -4204,7 +4204,7 @@
     <t>LRP293b</t>
   </si>
   <si>
-    <t>LRP286b _B</t>
+    <t>LRP286b_B</t>
   </si>
   <si>
     <t>LRP293c</t>
@@ -4219,7 +4219,7 @@
     <t>LRP294a</t>
   </si>
   <si>
-    <t>LRP287a _B</t>
+    <t>LRP287a_B</t>
   </si>
   <si>
     <t>KOACHIA(MADARBHI)</t>
@@ -4240,7 +4240,7 @@
     <t>LRP296a</t>
   </si>
   <si>
-    <t>LRP288a _B</t>
+    <t>LRP288a_B</t>
   </si>
   <si>
     <t>MITADIGI ACADEMY</t>
@@ -4255,7 +4255,7 @@
     <t>LRP297a</t>
   </si>
   <si>
-    <t>LRP289a _B</t>
+    <t>LRP289a_B</t>
   </si>
   <si>
     <t>MITADIGI</t>
@@ -4270,7 +4270,7 @@
     <t>LRP298b</t>
   </si>
   <si>
-    <t>LRP291a _B</t>
+    <t>LRP291a_B</t>
   </si>
   <si>
     <t>Raj Ghata Bridge</t>
@@ -4282,7 +4282,7 @@
     <t>Cox,s Bazar 100 km,Pasra 2 km</t>
   </si>
   <si>
-    <t>LRP291c _B</t>
+    <t>LRP291c_B</t>
   </si>
   <si>
     <t>THAKUR DIGI BOX CULVERT</t>
@@ -4294,13 +4294,13 @@
     <t>LRP299b</t>
   </si>
   <si>
-    <t>LRP291d _B</t>
+    <t>LRP291d_B</t>
   </si>
   <si>
     <t>Khoria Nagar Bridge</t>
   </si>
   <si>
-    <t>LRP292a _B</t>
+    <t>LRP292a_B</t>
   </si>
   <si>
     <t>NOYA PARA BOX CULVERT</t>
@@ -4315,7 +4315,7 @@
     <t>LRP300a</t>
   </si>
   <si>
-    <t>LRP292b _B</t>
+    <t>LRP292b_B</t>
   </si>
   <si>
     <t>PODUA NOYA PARA BOX CULVERT</t>
@@ -4324,7 +4324,7 @@
     <t>LRP300b</t>
   </si>
   <si>
-    <t>LRP293a _B</t>
+    <t>LRP293a_B</t>
   </si>
   <si>
     <t>PODUA BAZAR BOX CULVERT</t>
@@ -4336,7 +4336,7 @@
     <t>LRP301a</t>
   </si>
   <si>
-    <t>LRP293c _B</t>
+    <t>LRP293c_B</t>
   </si>
   <si>
     <t>LRP301b</t>
@@ -4348,7 +4348,7 @@
     <t>LRP301c</t>
   </si>
   <si>
-    <t>LRP294a _B</t>
+    <t>LRP294a_B</t>
   </si>
   <si>
     <t>BARO AWLIA(R)</t>
@@ -4360,7 +4360,7 @@
     <t>LRP302a</t>
   </si>
   <si>
-    <t>LRP294c _B</t>
+    <t>LRP294c_B</t>
   </si>
   <si>
     <t>TALOCKDNR PARA BOX CULVERT</t>
@@ -4375,7 +4375,7 @@
     <t>LRP303a</t>
   </si>
   <si>
-    <t>LRP295a _B</t>
+    <t>LRP295a_B</t>
   </si>
   <si>
     <t>AMIRABAD BOX CULVERT</t>
@@ -4384,7 +4384,7 @@
     <t>LRP303b</t>
   </si>
   <si>
-    <t>LRP295b _B</t>
+    <t>LRP295b_B</t>
   </si>
   <si>
     <t>Amirabad Bridge</t>
@@ -4396,7 +4396,7 @@
     <t>LRP304a</t>
   </si>
   <si>
-    <t>LRP296a _B</t>
+    <t>LRP296a_B</t>
   </si>
   <si>
     <t>AMIRABAD LOHAGOR BOX CULVERT</t>
@@ -4411,7 +4411,7 @@
     <t>LRP305a</t>
   </si>
   <si>
-    <t>LRP296b _B</t>
+    <t>LRP296b_B</t>
   </si>
   <si>
     <t>AMIRABAD LOHAGORA BOX CULVERT</t>
@@ -4423,7 +4423,7 @@
     <t>Cox,s Bazar 93 km,Lohagora 6 km</t>
   </si>
   <si>
-    <t>LRP298a _B</t>
+    <t>LRP298a_B</t>
   </si>
   <si>
     <t>LOHAGORA L.S BOX CULVERT</t>
@@ -4438,7 +4438,7 @@
     <t>Cox,s Bazar 92 km,Lohagra 0 km</t>
   </si>
   <si>
-    <t>LRP299a _B</t>
+    <t>LRP299a_B</t>
   </si>
   <si>
     <t>DIGIRPARK BOX CULVERT</t>
@@ -4447,7 +4447,7 @@
     <t>LRP307a</t>
   </si>
   <si>
-    <t>LRP299c _B</t>
+    <t>LRP299c_B</t>
   </si>
   <si>
     <t>DIGIRPAR BOX CULVERT</t>
@@ -4462,13 +4462,13 @@
     <t>Cox,s Bazar 87 km</t>
   </si>
   <si>
-    <t>LRP300a _B</t>
+    <t>LRP300a_B</t>
   </si>
   <si>
     <t>ZADUNAGOR FILLING BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP300b _B</t>
+    <t>LRP300b_B</t>
   </si>
   <si>
     <t>ZADUNAPUR SHAPIR FILLING STATION -(2) BOX CULVERT</t>
@@ -4480,7 +4480,7 @@
     <t>LRP308b</t>
   </si>
   <si>
-    <t>LRP300d _B</t>
+    <t>LRP300d_B</t>
   </si>
   <si>
     <t>Khasmahal Bridge</t>
@@ -4498,7 +4498,7 @@
     <t>Cox,s Bazar 86 km,Chokaria 28 km</t>
   </si>
   <si>
-    <t>LRP301a _B</t>
+    <t>LRP301a_B</t>
   </si>
   <si>
     <t>ZADUNAGOR BUS STATION BOX CULVERT</t>
@@ -4507,7 +4507,7 @@
     <t>LRP309a</t>
   </si>
   <si>
-    <t>LRP301b _B</t>
+    <t>LRP301b_B</t>
   </si>
   <si>
     <t>Adunagar Bridge</t>
@@ -4525,7 +4525,7 @@
     <t>Cox,s Bazar 87 km,Chokaria 27 km</t>
   </si>
   <si>
-    <t>LRP302a _B</t>
+    <t>LRP302a_B</t>
   </si>
   <si>
     <t>Hatirpul Bridge</t>
@@ -4537,7 +4537,7 @@
     <t>LRP310b</t>
   </si>
   <si>
-    <t>LRP302c _B</t>
+    <t>LRP302c_B</t>
   </si>
   <si>
     <t>HATIAR PULL BOX CULVERT</t>
@@ -4546,7 +4546,7 @@
     <t>LRP310c</t>
   </si>
   <si>
-    <t>LRP302e _B</t>
+    <t>LRP302e_B</t>
   </si>
   <si>
     <t>SHIX DAR PARA BOX CULVERT</t>
@@ -4561,7 +4561,7 @@
     <t>Cox,s Bazar 88 km,Chowria 27 km</t>
   </si>
   <si>
-    <t>LRP303a _B</t>
+    <t>LRP303a_B</t>
   </si>
   <si>
     <t>MUSKAMPANI PARA BOX CULVERT</t>
@@ -4579,7 +4579,7 @@
     <t>Road to Banskhali (R171)</t>
   </si>
   <si>
-    <t>LRP304b _B</t>
+    <t>LRP304b_B</t>
   </si>
   <si>
     <t>AODU NAGOR (2) BOX CULVERT</t>
@@ -4591,7 +4591,7 @@
     <t>LRP313</t>
   </si>
   <si>
-    <t>LRP305a _B</t>
+    <t>LRP305a_B</t>
   </si>
   <si>
     <t>Rataykul Bridge</t>
@@ -4603,7 +4603,7 @@
     <t>LRP313b</t>
   </si>
   <si>
-    <t>LRP305c _B</t>
+    <t>LRP305c_B</t>
   </si>
   <si>
     <t>BONPUKR PARA BOX CULVERT</t>
@@ -4612,7 +4612,7 @@
     <t>LRP313c</t>
   </si>
   <si>
-    <t>LRP306a _B</t>
+    <t>LRP306a_B</t>
   </si>
   <si>
     <t>BON PUKUL PARA BOX CULVERT</t>
@@ -4624,7 +4624,7 @@
     <t>LRP314a</t>
   </si>
   <si>
-    <t>LRP306b _B</t>
+    <t>LRP306b_B</t>
   </si>
   <si>
     <t>Santi Bridge</t>
@@ -4639,7 +4639,7 @@
     <t>LRP315</t>
   </si>
   <si>
-    <t>LRP307a _B</t>
+    <t>LRP307a_B</t>
   </si>
   <si>
     <t>SANTI BOX CULVERT</t>
@@ -4651,7 +4651,7 @@
     <t>LRP316</t>
   </si>
   <si>
-    <t>LRP308a _B</t>
+    <t>LRP308a_B</t>
   </si>
   <si>
     <t>BRICK FIELD BOX CULVERT</t>
@@ -4660,7 +4660,7 @@
     <t>LRP316a</t>
   </si>
   <si>
-    <t>LRP308b _B</t>
+    <t>LRP308b_B</t>
   </si>
   <si>
     <t>BACK FILD BOX CULVERT</t>
@@ -4669,7 +4669,7 @@
     <t>LRP316b</t>
   </si>
   <si>
-    <t>LRP309a _B</t>
+    <t>LRP309a_B</t>
   </si>
   <si>
     <t>AZIZNAGOR FOREST BOX CULVERT</t>
@@ -4684,7 +4684,7 @@
     <t>LRP317a</t>
   </si>
   <si>
-    <t>LRP309b _B</t>
+    <t>LRP309b_B</t>
   </si>
   <si>
     <t>AZIZ NOGOR FOREST BOX CULVERT</t>
@@ -4702,7 +4702,7 @@
     <t>Cox,s Bazar 77 km/Start of Cox's Bazar Road Division. / Cox,s Bazar 77 km/Start of Cox's Bazar Road Division.</t>
   </si>
   <si>
-    <t>LRP310a _B</t>
+    <t>LRP310a_B</t>
   </si>
   <si>
     <t>AZIZNAGOR BOX CULVERT</t>
@@ -4711,7 +4711,7 @@
     <t>LRP318a</t>
   </si>
   <si>
-    <t>LRP310b _B</t>
+    <t>LRP310b_B</t>
   </si>
   <si>
     <t>AZIZ NOGAR BOX CULVERT</t>
@@ -4726,7 +4726,7 @@
     <t>Cox,s Bazar 76 km</t>
   </si>
   <si>
-    <t>LRP311a _B</t>
+    <t>LRP311a_B</t>
   </si>
   <si>
     <t>AZIZ NAGOR 1</t>
@@ -4735,7 +4735,7 @@
     <t>LRP319a</t>
   </si>
   <si>
-    <t>LRP311b _B</t>
+    <t>LRP311b_B</t>
   </si>
   <si>
     <t>AZIZ NAGOR 2</t>
@@ -4768,7 +4768,7 @@
     <t>Road to Toitong (Z1124)</t>
   </si>
   <si>
-    <t>LRP313b _B</t>
+    <t>LRP313b_B</t>
   </si>
   <si>
     <t>HARBHANG CHOR</t>
@@ -4783,7 +4783,7 @@
     <t>Cox,s Bazar 73 km</t>
   </si>
   <si>
-    <t>LRP314a _B</t>
+    <t>LRP314a_B</t>
   </si>
   <si>
     <t>GHOIL MARA BOX CULVERT</t>
@@ -4798,7 +4798,7 @@
     <t>Cox's Bazar 72 km</t>
   </si>
   <si>
-    <t>LRP315a _B</t>
+    <t>LRP315a_B</t>
   </si>
   <si>
     <t>HARBANG</t>
@@ -4810,7 +4810,7 @@
     <t>LRP324</t>
   </si>
   <si>
-    <t>LRP316a _B</t>
+    <t>LRP316a_B</t>
   </si>
   <si>
     <t>LRP324a</t>
@@ -4819,7 +4819,7 @@
     <t>LRP325</t>
   </si>
   <si>
-    <t>LRP317a _B</t>
+    <t>LRP317a_B</t>
   </si>
   <si>
     <t>Harbang Chora Bridge</t>
@@ -4831,7 +4831,7 @@
     <t>LRP325b</t>
   </si>
   <si>
-    <t>LRP318a _B</t>
+    <t>LRP318a_B</t>
   </si>
   <si>
     <t>ALIPUR BOX CULVERT</t>
@@ -4846,7 +4846,7 @@
     <t>LRP326a</t>
   </si>
   <si>
-    <t>LRP318b _B</t>
+    <t>LRP318b_B</t>
   </si>
   <si>
     <t>LRP326b</t>
@@ -4858,7 +4858,7 @@
     <t>Cox,s Bazar 68 km</t>
   </si>
   <si>
-    <t>LRP319a _B</t>
+    <t>LRP319a_B</t>
   </si>
   <si>
     <t>HAR BAG BOX CULVERT</t>
@@ -4867,7 +4867,7 @@
     <t>LRP327a</t>
   </si>
   <si>
-    <t>LRP319b _B</t>
+    <t>LRP319b_B</t>
   </si>
   <si>
     <t>LRP327b</t>
@@ -4879,7 +4879,7 @@
     <t>Cox,s Bazar 67 km</t>
   </si>
   <si>
-    <t>LRP320a _B</t>
+    <t>LRP320a_B</t>
   </si>
   <si>
     <t>ATKOTA</t>
@@ -4900,13 +4900,13 @@
     <t>Cox's Bazar 66 km</t>
   </si>
   <si>
-    <t>LRP321a _B</t>
+    <t>LRP321a_B</t>
   </si>
   <si>
     <t>AKOTA BAZAR BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP321b _B</t>
+    <t>LRP321b_B</t>
   </si>
   <si>
     <t>Bodoitola Bridge</t>
@@ -4918,7 +4918,7 @@
     <t>LRP329b</t>
   </si>
   <si>
-    <t>LRP321d _B</t>
+    <t>LRP321d_B</t>
   </si>
   <si>
     <t>BODAITALI BOX CULVERT</t>
@@ -4933,7 +4933,7 @@
     <t>Cox's Bazar 65km</t>
   </si>
   <si>
-    <t>LRP322a _B</t>
+    <t>LRP322a_B</t>
   </si>
   <si>
     <t>BODOITOLI BOX CULVERT</t>
@@ -4954,7 +4954,7 @@
     <t>Road to Paharchanda(Z1002)</t>
   </si>
   <si>
-    <t>LRP323b _B</t>
+    <t>LRP323b_B</t>
   </si>
   <si>
     <t>BANIYAR CHORA</t>
@@ -4978,7 +4978,7 @@
     <t>Cox,s Bazar 62 km</t>
   </si>
   <si>
-    <t>LRP325a _B</t>
+    <t>LRP325a_B</t>
   </si>
   <si>
     <t>NOL BELA-1 BOX CULVERT</t>
@@ -4987,7 +4987,7 @@
     <t>LRP333a</t>
   </si>
   <si>
-    <t>LRP325c _B</t>
+    <t>LRP325c_B</t>
   </si>
   <si>
     <t>NOL BELA BOX CULVERT</t>
@@ -5002,7 +5002,7 @@
     <t>Cox,s Bazar 61 km</t>
   </si>
   <si>
-    <t>LRP326a _B</t>
+    <t>LRP326a_B</t>
   </si>
   <si>
     <t>NOLBELA BOX CULVERT</t>
@@ -5029,7 +5029,7 @@
     <t>Intersection with Z1126</t>
   </si>
   <si>
-    <t>LRP327a _B</t>
+    <t>LRP327a_B</t>
   </si>
   <si>
     <t>DIDDA BAZAR BOX CULVERT</t>
@@ -5038,7 +5038,7 @@
     <t>LRP335d</t>
   </si>
   <si>
-    <t>LRP328a _B</t>
+    <t>LRP328a_B</t>
   </si>
   <si>
     <t>Mathamuhuri Bridge</t>
@@ -5083,7 +5083,7 @@
     <t>Cox,s Bazar 56 km</t>
   </si>
   <si>
-    <t>LRP331a _B</t>
+    <t>LRP331a_B</t>
   </si>
   <si>
     <t>BANDI BAZAR BOX CULVERT</t>
@@ -5092,7 +5092,7 @@
     <t>LRP339a</t>
   </si>
   <si>
-    <t>LRP332a _B</t>
+    <t>LRP332a_B</t>
   </si>
   <si>
     <t>KUMARIKOOL BOX CULVERT</t>
@@ -5107,7 +5107,7 @@
     <t>LRP340a</t>
   </si>
   <si>
-    <t>LRP332b _B</t>
+    <t>LRP332b_B</t>
   </si>
   <si>
     <t>PASIYAKALI BOX CULVERT</t>
@@ -5116,7 +5116,7 @@
     <t>LRP340b</t>
   </si>
   <si>
-    <t>LRP332c _B</t>
+    <t>LRP332c_B</t>
   </si>
   <si>
     <t>Pasiyakali Bridge</t>
@@ -5134,7 +5134,7 @@
     <t>Cox,s Bazar 54 km</t>
   </si>
   <si>
-    <t>LRP333a _B</t>
+    <t>LRP333a_B</t>
   </si>
   <si>
     <t>HASIRUGIGI</t>
@@ -5167,7 +5167,7 @@
     <t>Cox,s Bazar 52 km</t>
   </si>
   <si>
-    <t>LRP335a _B</t>
+    <t>LRP335a_B</t>
   </si>
   <si>
     <t>CHOHAJANYA (1)</t>
@@ -5182,7 +5182,7 @@
     <t>Cox,s Bazar 51 km</t>
   </si>
   <si>
-    <t>LRP336a _B</t>
+    <t>LRP336a_B</t>
   </si>
   <si>
     <t>CHOHAJANIYA (2)</t>
@@ -5209,7 +5209,7 @@
     <t>Cox's Bazar 48 km</t>
   </si>
   <si>
-    <t>LRP339a _B</t>
+    <t>LRP339a_B</t>
   </si>
   <si>
     <t>Polia Fari Bridge</t>
@@ -5221,7 +5221,7 @@
     <t>LRP347b</t>
   </si>
   <si>
-    <t>LRP339c _B</t>
+    <t>LRP339c_B</t>
   </si>
   <si>
     <t>DULAHAJARA (SAFARI PARK)</t>
@@ -5242,7 +5242,7 @@
     <t>Road to Garzania (Z1130)</t>
   </si>
   <si>
-    <t>LRP340a _B</t>
+    <t>LRP340a_B</t>
   </si>
   <si>
     <t>DULAHAJARA CULVERT</t>
@@ -5257,7 +5257,7 @@
     <t>Cox,s Bazar 46 km</t>
   </si>
   <si>
-    <t>LRP341a _B</t>
+    <t>LRP341a_B</t>
   </si>
   <si>
     <t>Dulahajar Bridge</t>
@@ -5275,7 +5275,7 @@
     <t>Cox,s Bazar 45 km</t>
   </si>
   <si>
-    <t>LRP342a _B</t>
+    <t>LRP342a_B</t>
   </si>
   <si>
     <t>BOYRAGIR KHIL</t>
@@ -5290,7 +5290,7 @@
     <t>LRP350c</t>
   </si>
   <si>
-    <t>LRP342c _B</t>
+    <t>LRP342c_B</t>
   </si>
   <si>
     <t>PAGOLARIBIL</t>
@@ -5317,7 +5317,7 @@
     <t>Cox,s Bazar 42 km</t>
   </si>
   <si>
-    <t>LRP345a _B</t>
+    <t>LRP345a_B</t>
   </si>
   <si>
     <t>KHUTAKHALI</t>
@@ -5332,7 +5332,7 @@
     <t>Cox's Bazar 41km</t>
   </si>
   <si>
-    <t>LRP346a _B</t>
+    <t>LRP346a_B</t>
   </si>
   <si>
     <t>khutakhali bazar</t>
@@ -5362,13 +5362,13 @@
     <t>LRP355b</t>
   </si>
   <si>
-    <t>LRP347a _B</t>
+    <t>LRP347a_B</t>
   </si>
   <si>
     <t>FULCHARI (NEWPARA)</t>
   </si>
   <si>
-    <t>LRP347b _B</t>
+    <t>LRP347b_B</t>
   </si>
   <si>
     <t>LRP356</t>
@@ -5380,7 +5380,7 @@
     <t>LRP356a</t>
   </si>
   <si>
-    <t>LRP348a _B</t>
+    <t>LRP348a_B</t>
   </si>
   <si>
     <t>FULCHARI CULVERT</t>
@@ -5389,7 +5389,7 @@
     <t>LRP356b</t>
   </si>
   <si>
-    <t>LRP348b _B</t>
+    <t>LRP348b_B</t>
   </si>
   <si>
     <t>FULCHARI BAZAR</t>
@@ -5404,7 +5404,7 @@
     <t>LRP357a</t>
   </si>
   <si>
-    <t>LRP349a _B</t>
+    <t>LRP349a_B</t>
   </si>
   <si>
     <t>NAPITE KHALI CULVERT</t>
@@ -5413,7 +5413,7 @@
     <t>LRP357b</t>
   </si>
   <si>
-    <t>LRP349b _B</t>
+    <t>LRP349b_B</t>
   </si>
   <si>
     <t>NAPITE KHALI</t>
@@ -5431,7 +5431,7 @@
     <t>LRP358b</t>
   </si>
   <si>
-    <t>LRP350a _B</t>
+    <t>LRP350a_B</t>
   </si>
   <si>
     <t>EAST NAPITL KHAL BOX CULVERT</t>
@@ -5446,7 +5446,7 @@
     <t>LRP359a</t>
   </si>
   <si>
-    <t>LRP351a _B</t>
+    <t>LRP351a_B</t>
   </si>
   <si>
     <t>NAEK KHALI BOX CULVERT</t>
@@ -5467,7 +5467,7 @@
     <t>Cox,s Bazar 34 km</t>
   </si>
   <si>
-    <t>LRP352a _B</t>
+    <t>LRP352a_B</t>
   </si>
   <si>
     <t>KHODIA BARI PRIMARY BOX CULVERT</t>
@@ -5479,13 +5479,13 @@
     <t>LRP361b</t>
   </si>
   <si>
-    <t>LRP353a _B</t>
+    <t>LRP353a_B</t>
   </si>
   <si>
     <t>ISLAMABAD KHODIABARI BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP353b _B</t>
+    <t>LRP353b_B</t>
   </si>
   <si>
     <t>ISLAMABAD KHODIA BARI BOX CULVERT</t>
@@ -5497,7 +5497,7 @@
     <t>Cos,x Bazar 33 km</t>
   </si>
   <si>
-    <t>LRP354a _B</t>
+    <t>LRP354a_B</t>
   </si>
   <si>
     <t>Eidgaon Bazar Bridge</t>
@@ -5515,7 +5515,7 @@
     <t>LRP362d</t>
   </si>
   <si>
-    <t>LRP354d _B</t>
+    <t>LRP354d_B</t>
   </si>
   <si>
     <t>eidgaon</t>
@@ -5545,13 +5545,13 @@
     <t>LRP365b</t>
   </si>
   <si>
-    <t>LRP357a _B</t>
+    <t>LRP357a_B</t>
   </si>
   <si>
     <t>SHAT GOREA PARA BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP357c _B</t>
+    <t>LRP357c_B</t>
   </si>
   <si>
     <t>KALIRCHARA BOX CULVERT</t>
@@ -5566,7 +5566,7 @@
     <t>LRP365e</t>
   </si>
   <si>
-    <t>LRP357d _B</t>
+    <t>LRP357d_B</t>
   </si>
   <si>
     <t>KALIRCHARA BAZAR BOX CULVERT</t>
@@ -5578,7 +5578,7 @@
     <t>Cox,s Bazar 29 km</t>
   </si>
   <si>
-    <t>LRP357f _B</t>
+    <t>LRP357f_B</t>
   </si>
   <si>
     <t>KALIRCHAR</t>
@@ -5587,7 +5587,7 @@
     <t>LRP366a</t>
   </si>
   <si>
-    <t>LRP358a _B</t>
+    <t>LRP358a_B</t>
   </si>
   <si>
     <t>RASHIDNAGAR</t>
@@ -5602,7 +5602,7 @@
     <t>Cox.s Bazar 28 km</t>
   </si>
   <si>
-    <t>LRP358b _B</t>
+    <t>LRP358b_B</t>
   </si>
   <si>
     <t>ROSHIDNAGAR CULVERT</t>
@@ -5614,13 +5614,13 @@
     <t>LRP367b</t>
   </si>
   <si>
-    <t>LRP359a _B</t>
+    <t>LRP359a_B</t>
   </si>
   <si>
     <t>DOLERCHARA CULVERT</t>
   </si>
   <si>
-    <t>LRP359b _B</t>
+    <t>LRP359b_B</t>
   </si>
   <si>
     <t>LRP368</t>
@@ -5641,13 +5641,13 @@
     <t>LRP369a</t>
   </si>
   <si>
-    <t>LRP360a _B</t>
+    <t>LRP360a_B</t>
   </si>
   <si>
     <t>ROSHIDNAGAR (2)</t>
   </si>
   <si>
-    <t>LRP360c _B</t>
+    <t>LRP360c_B</t>
   </si>
   <si>
     <t>ROSHIDNAGAR U,R CULVERT</t>
@@ -5674,7 +5674,7 @@
     <t>Cox.s Bazar 23 km</t>
   </si>
   <si>
-    <t>LRP363b _B</t>
+    <t>LRP363b_B</t>
   </si>
   <si>
     <t>JOARIANALA CULVERT</t>
@@ -5683,7 +5683,7 @@
     <t>LRP372a</t>
   </si>
   <si>
-    <t>LRP364a _B</t>
+    <t>LRP364a_B</t>
   </si>
   <si>
     <t>JOARIANALA</t>
@@ -5692,7 +5692,7 @@
     <t>LRP372b</t>
   </si>
   <si>
-    <t>LRP364c _B</t>
+    <t>LRP364c_B</t>
   </si>
   <si>
     <t>JORIANALA</t>
@@ -5710,7 +5710,7 @@
     <t>LRP373b</t>
   </si>
   <si>
-    <t>LRP364d _B</t>
+    <t>LRP364d_B</t>
   </si>
   <si>
     <t>JOARIANALA BAZAR PC GIDER BRIDGE(L)</t>
@@ -5719,7 +5719,7 @@
     <t>LRP373c</t>
   </si>
   <si>
-    <t>LRP365a _B</t>
+    <t>LRP365a_B</t>
   </si>
   <si>
     <t>LRP374</t>
@@ -5740,7 +5740,7 @@
     <t>LRP375b</t>
   </si>
   <si>
-    <t>LRP367a _B</t>
+    <t>LRP367a_B</t>
   </si>
   <si>
     <t>MITA CHARI BOX CULVERT</t>
@@ -5761,7 +5761,7 @@
     <t>LRP376b</t>
   </si>
   <si>
-    <t>LRP368a _B</t>
+    <t>LRP368a_B</t>
   </si>
   <si>
     <t>RAMU HOSPITAL GATE</t>
@@ -5770,7 +5770,7 @@
     <t>LRP376c</t>
   </si>
   <si>
-    <t>LRP368c _B</t>
+    <t>LRP368c_B</t>
   </si>
   <si>
     <t>MITACMARI RAMU BRIDGE</t>
@@ -5788,7 +5788,7 @@
     <t>LRP377a</t>
   </si>
   <si>
-    <t>LRP369a _B</t>
+    <t>LRP369a_B</t>
   </si>
   <si>
     <t>MARULA (WEST)</t>
@@ -5797,7 +5797,7 @@
     <t>LRP377b</t>
   </si>
   <si>
-    <t>LRP369b _B</t>
+    <t>LRP369b_B</t>
   </si>
   <si>
     <t>MARULA BOX CULVERT</t>
@@ -5812,7 +5812,7 @@
     <t>LRP378a</t>
   </si>
   <si>
-    <t>LRP369c _B</t>
+    <t>LRP369c_B</t>
   </si>
   <si>
     <t>RAMU BRAC OFFICE</t>
@@ -5821,7 +5821,7 @@
     <t>LRP378b</t>
   </si>
   <si>
-    <t>LRP370a _B</t>
+    <t>LRP370a_B</t>
   </si>
   <si>
     <t>RAMU BY PASS MORE</t>
@@ -5836,7 +5836,7 @@
     <t>LRP378d</t>
   </si>
   <si>
-    <t>LRP370c _B</t>
+    <t>LRP370c_B</t>
   </si>
   <si>
     <t>RAMU MOUR BOX CULVDERT</t>
@@ -5851,7 +5851,7 @@
     <t>LRP379a</t>
   </si>
   <si>
-    <t>LRP370e _B</t>
+    <t>LRP370e_B</t>
   </si>
   <si>
     <t>ROMA CALLAGE BOX CULVERT</t>
@@ -5863,7 +5863,7 @@
     <t>LRP379c</t>
   </si>
   <si>
-    <t>LRP371a _B</t>
+    <t>LRP371a_B</t>
   </si>
   <si>
     <t>ROMA TECHIPUL</t>
@@ -5878,13 +5878,13 @@
     <t>LRP380a</t>
   </si>
   <si>
-    <t>LRP371c _B</t>
+    <t>LRP371c_B</t>
   </si>
   <si>
     <t>SAMBAR PUL CULVERT</t>
   </si>
   <si>
-    <t>LRP372a _B</t>
+    <t>LRP372a_B</t>
   </si>
   <si>
     <t>CHAKMARKOOL</t>
@@ -5899,7 +5899,7 @@
     <t>Cox,s Bazar 14 km</t>
   </si>
   <si>
-    <t>LRP372c _B</t>
+    <t>LRP372c_B</t>
   </si>
   <si>
     <t>CHAKMAR KOOL BOX CULVERT</t>
@@ -5914,7 +5914,7 @@
     <t>Cox's Bazar 13km</t>
   </si>
   <si>
-    <t>LRP373a _B</t>
+    <t>LRP373a_B</t>
   </si>
   <si>
     <t>KHURUTIA BOX CULVERT</t>
@@ -5923,7 +5923,7 @@
     <t>LRP382a</t>
   </si>
   <si>
-    <t>LRP373b _B</t>
+    <t>LRP373b_B</t>
   </si>
   <si>
     <t>KHURULIA CULVERT</t>
@@ -5932,7 +5932,7 @@
     <t>LRP382b</t>
   </si>
   <si>
-    <t>LRP374a _B</t>
+    <t>LRP374a_B</t>
   </si>
   <si>
     <t>KHURULIA SCHOOL BOX CULVERT</t>
@@ -5941,7 +5941,7 @@
     <t>LRP382c</t>
   </si>
   <si>
-    <t>LRP374c _B</t>
+    <t>LRP374c_B</t>
   </si>
   <si>
     <t>LRP382d</t>
@@ -5953,7 +5953,7 @@
     <t>Cox,s Bazar 12 km</t>
   </si>
   <si>
-    <t>LRP374e _B</t>
+    <t>LRP374e_B</t>
   </si>
   <si>
     <t>KHURULIA CHAIRMAN PARA BOX CULVERT</t>
@@ -5962,7 +5962,7 @@
     <t>LRP383a</t>
   </si>
   <si>
-    <t>LRP375a _B</t>
+    <t>LRP375a_B</t>
   </si>
   <si>
     <t>Sarkarpara Bridge</t>
@@ -5980,7 +5980,7 @@
     <t>Cox,s Bazar 11 km</t>
   </si>
   <si>
-    <t>LRP375c _B</t>
+    <t>LRP375c_B</t>
   </si>
   <si>
     <t>WEST DOVGE BOX CULVERT</t>
@@ -5989,7 +5989,7 @@
     <t>LRP384a</t>
   </si>
   <si>
-    <t>LRP376a _B</t>
+    <t>LRP376a_B</t>
   </si>
   <si>
     <t>MUKTAR KUL</t>
@@ -6007,7 +6007,7 @@
     <t>LRP385a</t>
   </si>
   <si>
-    <t>LRP377a _B</t>
+    <t>LRP377a_B</t>
   </si>
   <si>
     <t>Bakkhali Bridge</t>
@@ -6019,7 +6019,7 @@
     <t>LRP385c</t>
   </si>
   <si>
-    <t>LRP377c _B</t>
+    <t>LRP377c_B</t>
   </si>
   <si>
     <t>MOHURI RARA BOX</t>
@@ -6034,7 +6034,7 @@
     <t>Cox,s Bazar 9 km</t>
   </si>
   <si>
-    <t>LRP377d _B</t>
+    <t>LRP377d_B</t>
   </si>
   <si>
     <t>RABAR DAM BOX</t>
@@ -6043,7 +6043,7 @@
     <t>LRP386a</t>
   </si>
   <si>
-    <t>LRP377f _B</t>
+    <t>LRP377f_B</t>
   </si>
   <si>
     <t>LINK ROAD CULVERT</t>
@@ -6064,13 +6064,13 @@
     <t>Teknaf 79 km</t>
   </si>
   <si>
-    <t>LRP378a _B</t>
+    <t>LRP378a_B</t>
   </si>
   <si>
     <t>BESIC AREA</t>
   </si>
   <si>
-    <t>LRP378b _B</t>
+    <t>LRP378b_B</t>
   </si>
   <si>
     <t>BASIC ARIA (1)</t>
@@ -6088,7 +6088,7 @@
     <t>Teknaf 78 km,Uttia 24 km</t>
   </si>
   <si>
-    <t>LRP379a _B</t>
+    <t>LRP379a_B</t>
   </si>
   <si>
     <t>KAMBIR GONA</t>
@@ -6097,7 +6097,7 @@
     <t>LRP388a</t>
   </si>
   <si>
-    <t>LRP379b _B</t>
+    <t>LRP379b_B</t>
   </si>
   <si>
     <t>HAMBIR GONA (1)</t>
@@ -6106,7 +6106,7 @@
     <t>LRP388b</t>
   </si>
   <si>
-    <t>LRP379c _B</t>
+    <t>LRP379c_B</t>
   </si>
   <si>
     <t>HAMBIR GONA-(2)</t>
@@ -6121,7 +6121,7 @@
     <t>Teknaf 77 km,Uthia 23 km</t>
   </si>
   <si>
-    <t>LRP380a _B</t>
+    <t>LRP380a_B</t>
   </si>
   <si>
     <t>KANAR PARA</t>
@@ -6130,7 +6130,7 @@
     <t>LRP389a</t>
   </si>
   <si>
-    <t>LRP380c _B</t>
+    <t>LRP380c_B</t>
   </si>
   <si>
     <t>SHORAR COOL</t>
@@ -6145,7 +6145,7 @@
     <t>LRP389d</t>
   </si>
   <si>
-    <t>LRP380e _B</t>
+    <t>LRP380e_B</t>
   </si>
   <si>
     <t>SOUTH MITTA CHORI</t>
@@ -6160,7 +6160,7 @@
     <t>Teknaf 76 km,Uthia 22 km</t>
   </si>
   <si>
-    <t>LRP381a _B</t>
+    <t>LRP381a_B</t>
   </si>
   <si>
     <t>SOUTH MITHACHARI</t>
@@ -6169,13 +6169,13 @@
     <t>LRP390a</t>
   </si>
   <si>
-    <t>LRP381b _B</t>
+    <t>LRP381b_B</t>
   </si>
   <si>
     <t>LRP390b</t>
   </si>
   <si>
-    <t>LRP381c _B</t>
+    <t>LRP381c_B</t>
   </si>
   <si>
     <t>SOUTH MITTA CULVERT</t>
@@ -6190,19 +6190,19 @@
     <t>Teknaf 75 km,Uthia 21 km</t>
   </si>
   <si>
-    <t>LRP382a _B</t>
+    <t>LRP382a_B</t>
   </si>
   <si>
     <t>LRP391a</t>
   </si>
   <si>
-    <t>LRP382b _B</t>
+    <t>LRP382b_B</t>
   </si>
   <si>
     <t>LRP391b</t>
   </si>
   <si>
-    <t>LRP382c _B</t>
+    <t>LRP382c_B</t>
   </si>
   <si>
     <t>SHAMMOTI PARA</t>
@@ -6211,7 +6211,7 @@
     <t>LRP391c</t>
   </si>
   <si>
-    <t>LRP383a _B</t>
+    <t>LRP383a_B</t>
   </si>
   <si>
     <t>CHALATOLI</t>
@@ -6223,7 +6223,7 @@
     <t>LRP392a</t>
   </si>
   <si>
-    <t>LRP383b _B</t>
+    <t>LRP383b_B</t>
   </si>
   <si>
     <t>CHALIYATOLI</t>
@@ -6232,13 +6232,13 @@
     <t>LRP392b</t>
   </si>
   <si>
-    <t>LRP383c _B</t>
+    <t>LRP383c_B</t>
   </si>
   <si>
     <t>RAKALAN PARA STEEL BEAM AND RCC SLAB</t>
   </si>
   <si>
-    <t>LRP383d _B</t>
+    <t>LRP383d_B</t>
   </si>
   <si>
     <t>CHALIYA TOLI -2 ARCH MASONRY</t>
@@ -6259,7 +6259,7 @@
     <t>Teknaf 74 km,Uthia 20 km</t>
   </si>
   <si>
-    <t>LRP384a _B</t>
+    <t>LRP384a_B</t>
   </si>
   <si>
     <t>PANCHORI</t>
@@ -6268,7 +6268,7 @@
     <t>LRP393a</t>
   </si>
   <si>
-    <t>LRP384b _B</t>
+    <t>LRP384b_B</t>
   </si>
   <si>
     <t>PANCHORA STEEL BEAM AND RCC SLAB</t>
@@ -6280,7 +6280,7 @@
     <t>LRP393c</t>
   </si>
   <si>
-    <t>LRP385a _B</t>
+    <t>LRP385a_B</t>
   </si>
   <si>
     <t>PANAR CHORH -3 SLAB CULVERT</t>
@@ -6292,7 +6292,7 @@
     <t>Teknaf 73 km, Ukhia 19km</t>
   </si>
   <si>
-    <t>LRP385b _B</t>
+    <t>LRP385b_B</t>
   </si>
   <si>
     <t>PANCHARA SLAB CULVERT</t>
@@ -6301,19 +6301,19 @@
     <t>LRP394a</t>
   </si>
   <si>
-    <t>LRP385c _B</t>
+    <t>LRP385c_B</t>
   </si>
   <si>
     <t>LRP394b</t>
   </si>
   <si>
-    <t>LRP385d _B</t>
+    <t>LRP385d_B</t>
   </si>
   <si>
     <t>LRP394c</t>
   </si>
   <si>
-    <t>LRP385e _B</t>
+    <t>LRP385e_B</t>
   </si>
   <si>
     <t>PANAR CHORA SLAB CULVERT</t>
@@ -6322,13 +6322,13 @@
     <t>LRP394d</t>
   </si>
   <si>
-    <t>LRP385f _B</t>
+    <t>LRP385f_B</t>
   </si>
   <si>
     <t>PANCHORI SLAB CULVERT</t>
   </si>
   <si>
-    <t>LRP385g _B</t>
+    <t>LRP385g_B</t>
   </si>
   <si>
     <t>LRP394e</t>
@@ -6340,10 +6340,10 @@
     <t>LRP394g</t>
   </si>
   <si>
-    <t>LRP386a _B</t>
-  </si>
-  <si>
-    <t>LRP386b _B</t>
+    <t>LRP386a_B</t>
+  </si>
+  <si>
+    <t>LRP386b_B</t>
   </si>
   <si>
     <t>DALA -2 SLAB CULVERT</t>
@@ -6355,7 +6355,7 @@
     <t>Teknaf 72 km,Uthia 18 km</t>
   </si>
   <si>
-    <t>LRP386c _B</t>
+    <t>LRP386c_B</t>
   </si>
   <si>
     <t>DALA-2 SLAB CULVERT</t>
@@ -6364,7 +6364,7 @@
     <t>LRP395a</t>
   </si>
   <si>
-    <t>LRP386d _B</t>
+    <t>LRP386d_B</t>
   </si>
   <si>
     <t>DALA-3 SLAB CULVERT</t>
@@ -6376,13 +6376,13 @@
     <t>LRP395c</t>
   </si>
   <si>
-    <t>LRP386e _B</t>
+    <t>LRP386e_B</t>
   </si>
   <si>
     <t>DALA SLAB CULVERT</t>
   </si>
   <si>
-    <t>LRP386f _B</t>
+    <t>LRP386f_B</t>
   </si>
   <si>
     <t>LRP395d</t>
@@ -6391,7 +6391,7 @@
     <t>LRP395e</t>
   </si>
   <si>
-    <t>LRP386g _B</t>
+    <t>LRP386g_B</t>
   </si>
   <si>
     <t>DHALLA SLAB CULVERT</t>
@@ -6403,13 +6403,13 @@
     <t>LRP395g</t>
   </si>
   <si>
-    <t>LRP387a _B</t>
+    <t>LRP387a_B</t>
   </si>
   <si>
     <t>PANAR CHORI SLAB CULVERT</t>
   </si>
   <si>
-    <t>LRP387b _B</t>
+    <t>LRP387b_B</t>
   </si>
   <si>
     <t>PANAR HORA SLAB CULVERT</t>
@@ -6424,7 +6424,7 @@
     <t>Teknaf 71km, Ukhia 17km</t>
   </si>
   <si>
-    <t>LRP387c _B</t>
+    <t>LRP387c_B</t>
   </si>
   <si>
     <t>PANCR CHAR SLAB CULVERT</t>
@@ -6436,7 +6436,7 @@
     <t>LRP396b</t>
   </si>
   <si>
-    <t>LRP387d _B</t>
+    <t>LRP387d_B</t>
   </si>
   <si>
     <t>TULA BAGAN SLAB CULVERT</t>
@@ -6445,7 +6445,7 @@
     <t>LRP396c</t>
   </si>
   <si>
-    <t>LRP387e _B</t>
+    <t>LRP387e_B</t>
   </si>
   <si>
     <t>TULA BAGAN BOX CULVERT</t>
@@ -6454,13 +6454,13 @@
     <t>LRP396d</t>
   </si>
   <si>
-    <t>LRP387f _B</t>
+    <t>LRP387f_B</t>
   </si>
   <si>
     <t>TELA BAGAN SLAB CULVERT</t>
   </si>
   <si>
-    <t>LRP388a _B</t>
+    <t>LRP388a_B</t>
   </si>
   <si>
     <t>TULA BAGAN.</t>
@@ -6469,7 +6469,7 @@
     <t>LRP396e</t>
   </si>
   <si>
-    <t>LRP388b _B</t>
+    <t>LRP388b_B</t>
   </si>
   <si>
     <t>PARARHORA CULVERT</t>
@@ -6487,7 +6487,7 @@
     <t>LRP397a</t>
   </si>
   <si>
-    <t>LRP388c _B</t>
+    <t>LRP388c_B</t>
   </si>
   <si>
     <t>TULA BAGUN</t>
@@ -6496,7 +6496,7 @@
     <t>LRP397b</t>
   </si>
   <si>
-    <t>LRP388d _B</t>
+    <t>LRP388d_B</t>
   </si>
   <si>
     <t>TULA BAGAN</t>
@@ -6505,22 +6505,22 @@
     <t>LRP397c</t>
   </si>
   <si>
-    <t>LRP388e _B</t>
+    <t>LRP388e_B</t>
   </si>
   <si>
     <t>TOLA BAGAN</t>
   </si>
   <si>
-    <t>LRP389a _B</t>
-  </si>
-  <si>
-    <t>LRP389b _B</t>
+    <t>LRP389a_B</t>
+  </si>
+  <si>
+    <t>LRP389b_B</t>
   </si>
   <si>
     <t>NORTH-CONIAPARA</t>
   </si>
   <si>
-    <t>LRP389c _B</t>
+    <t>LRP389c_B</t>
   </si>
   <si>
     <t>NORTH CONIAPARA</t>
@@ -6541,7 +6541,7 @@
     <t>LRP398b</t>
   </si>
   <si>
-    <t>LRP389d _B</t>
+    <t>LRP389d_B</t>
   </si>
   <si>
     <t>NORTH CONIA PARA BOX CULVERT</t>
@@ -6553,7 +6553,7 @@
     <t>LRP398d</t>
   </si>
   <si>
-    <t>LRP390a _B</t>
+    <t>LRP390a_B</t>
   </si>
   <si>
     <t>Modomconiara</t>
@@ -6571,13 +6571,13 @@
     <t>LRP399b</t>
   </si>
   <si>
-    <t>LRP390c _B</t>
+    <t>LRP390c_B</t>
   </si>
   <si>
     <t>CONIA PARA</t>
   </si>
   <si>
-    <t>LRP391a _B</t>
+    <t>LRP391a_B</t>
   </si>
   <si>
     <t>KHONIA POLONG</t>
@@ -6595,13 +6595,13 @@
     <t>LRP400a</t>
   </si>
   <si>
-    <t>LRP391c _B</t>
+    <t>LRP391c_B</t>
   </si>
   <si>
     <t>KHONIA POLONG.</t>
   </si>
   <si>
-    <t>LRP392a _B</t>
+    <t>LRP392a_B</t>
   </si>
   <si>
     <t>DOA PATONG</t>
@@ -6625,7 +6625,7 @@
     <t>LRP401b</t>
   </si>
   <si>
-    <t>LRP393a _B</t>
+    <t>LRP393a_B</t>
   </si>
   <si>
     <t>JASOYA PALONG</t>
@@ -6643,13 +6643,13 @@
     <t>LRP402b</t>
   </si>
   <si>
-    <t>LRP393c _B</t>
+    <t>LRP393c_B</t>
   </si>
   <si>
     <t>JASOYA PALONG RCC GIDER BRIDGE</t>
   </si>
   <si>
-    <t>LRP394a _B</t>
+    <t>LRP394a_B</t>
   </si>
   <si>
     <t>MORICHIA</t>
@@ -6658,7 +6658,7 @@
     <t>LRP402c</t>
   </si>
   <si>
-    <t>LRP394c _B</t>
+    <t>LRP394c_B</t>
   </si>
   <si>
     <t>Jasoya check post.</t>
@@ -6679,7 +6679,7 @@
     <t>Road to Ramu(Z1009)</t>
   </si>
   <si>
-    <t>LRP394e _B</t>
+    <t>LRP394e_B</t>
   </si>
   <si>
     <t>MARIECHA BAZAR</t>
@@ -6703,7 +6703,7 @@
     <t>Z1503, Maricha Dakbunglow Road</t>
   </si>
   <si>
-    <t>LRP395a _B</t>
+    <t>LRP395a_B</t>
   </si>
   <si>
     <t>MORICHIA PALONG</t>
@@ -6718,10 +6718,10 @@
     <t>Teknaf 62 km,Uthia 8 km</t>
   </si>
   <si>
-    <t>LRP396a _B</t>
-  </si>
-  <si>
-    <t>LRP396b _B</t>
+    <t>LRP396a_B</t>
+  </si>
+  <si>
+    <t>LRP396b_B</t>
   </si>
   <si>
     <t>SHAPUR STEEL BEAM AND RCC SLAB</t>
@@ -6742,13 +6742,13 @@
     <t>Teknaf 61 km,Uthia 7 km</t>
   </si>
   <si>
-    <t>LRP398a _B</t>
+    <t>LRP398a_B</t>
   </si>
   <si>
     <t>SHAPUR</t>
   </si>
   <si>
-    <t>LRP398b _B</t>
+    <t>LRP398b_B</t>
   </si>
   <si>
     <t>COTBAZR MUSLIM HOS</t>
@@ -6763,7 +6763,7 @@
     <t>LRP407a</t>
   </si>
   <si>
-    <t>LRP398d _B</t>
+    <t>LRP398d_B</t>
   </si>
   <si>
     <t>COURT BAZAR</t>
@@ -6784,19 +6784,19 @@
     <t>Teknaf 59 km,Uthia 5 km</t>
   </si>
   <si>
-    <t>LRP400a _B</t>
+    <t>LRP400a_B</t>
   </si>
   <si>
     <t>RATNAPALANG</t>
   </si>
   <si>
-    <t>LRP400b _B</t>
+    <t>LRP400b_B</t>
   </si>
   <si>
     <t>CHADIRIKHANA</t>
   </si>
   <si>
-    <t>LRP400c _B</t>
+    <t>LRP400c_B</t>
   </si>
   <si>
     <t>LRP409</t>
@@ -6814,19 +6814,19 @@
     <t>LRP409c</t>
   </si>
   <si>
-    <t>LRP400e _B</t>
+    <t>LRP400e_B</t>
   </si>
   <si>
     <t>EJILA</t>
   </si>
   <si>
-    <t>LRP401a _B</t>
+    <t>LRP401a_B</t>
   </si>
   <si>
     <t>HIZOLIA BRIDGE</t>
   </si>
   <si>
-    <t>LRP401c _B</t>
+    <t>LRP401c_B</t>
   </si>
   <si>
     <t>MODDO RAJAPALONG</t>
@@ -6853,13 +6853,13 @@
     <t>LRP410d</t>
   </si>
   <si>
-    <t>LRP402a _B</t>
+    <t>LRP402a_B</t>
   </si>
   <si>
     <t>JADIMURA BRIDGE</t>
   </si>
   <si>
-    <t>LRP402b _B</t>
+    <t>LRP402b_B</t>
   </si>
   <si>
     <t>JADI MORA (2) CULVERT</t>
@@ -6871,7 +6871,7 @@
     <t>Teknaf 56 km,Uthia 2 km</t>
   </si>
   <si>
-    <t>LRP402c _B</t>
+    <t>LRP402c_B</t>
   </si>
   <si>
     <t>JADIMORA (3)</t>
@@ -6883,7 +6883,7 @@
     <t>LRP411b</t>
   </si>
   <si>
-    <t>LRP403a _B</t>
+    <t>LRP403a_B</t>
   </si>
   <si>
     <t>JADIMORA (1)</t>
@@ -6892,7 +6892,7 @@
     <t>LRP411c</t>
   </si>
   <si>
-    <t>LRP403b _B</t>
+    <t>LRP403b_B</t>
   </si>
   <si>
     <t>WEST OGALA</t>
@@ -6913,7 +6913,7 @@
     <t>LRP412b</t>
   </si>
   <si>
-    <t>LRP403d _B</t>
+    <t>LRP403d_B</t>
   </si>
   <si>
     <t>OKYIA STATION</t>
@@ -6922,7 +6922,7 @@
     <t>LRP412c</t>
   </si>
   <si>
-    <t>LRP404a _B</t>
+    <t>LRP404a_B</t>
   </si>
   <si>
     <t>UKLIA-SHAHABMARKAT</t>
@@ -6940,7 +6940,7 @@
     <t>Teknaf 54 km</t>
   </si>
   <si>
-    <t>LRP404b _B</t>
+    <t>LRP404b_B</t>
   </si>
   <si>
     <t>UKHIYA BAZAR</t>
@@ -6976,13 +6976,13 @@
     <t>Teknaf 51km</t>
   </si>
   <si>
-    <t>LRP408a _B</t>
+    <t>LRP408a_B</t>
   </si>
   <si>
     <t>P. F PARA SLAB</t>
   </si>
   <si>
-    <t>LRP408b _B</t>
+    <t>LRP408b_B</t>
   </si>
   <si>
     <t>KUTUB PALONG</t>
@@ -7000,7 +7000,7 @@
     <t>LRP417b</t>
   </si>
   <si>
-    <t>LRP409a _B</t>
+    <t>LRP409a_B</t>
   </si>
   <si>
     <t>KUTU - PALONG MOSZID SLAB</t>
@@ -7009,13 +7009,13 @@
     <t>LRP418</t>
   </si>
   <si>
-    <t>LRP409b _B</t>
+    <t>LRP409b_B</t>
   </si>
   <si>
     <t>KOSHO - BINNA - BRIDGE</t>
   </si>
   <si>
-    <t>LRP409d _B</t>
+    <t>LRP409d_B</t>
   </si>
   <si>
     <t>KASHO - BINNAI SLAB</t>
@@ -7024,7 +7024,7 @@
     <t>LRP418a</t>
   </si>
   <si>
-    <t>LRP410a _B</t>
+    <t>LRP410a_B</t>
   </si>
   <si>
     <t>KATU PALLANG SLAB</t>
@@ -7033,13 +7033,13 @@
     <t>LRP418b</t>
   </si>
   <si>
-    <t>LRP410b _B</t>
+    <t>LRP410b_B</t>
   </si>
   <si>
     <t>KUTUNG PALANG SLAB</t>
   </si>
   <si>
-    <t>LRP410c _B</t>
+    <t>LRP410c_B</t>
   </si>
   <si>
     <t>KOSUKONA</t>
@@ -7063,7 +7063,7 @@
     <t>LRP419c</t>
   </si>
   <si>
-    <t>LRP411a _B</t>
+    <t>LRP411a_B</t>
   </si>
   <si>
     <t>BALAKHALI TV CENTER</t>
@@ -7075,13 +7075,13 @@
     <t>Teknaf 46 km</t>
   </si>
   <si>
-    <t>LRP411b _B</t>
+    <t>LRP411b_B</t>
   </si>
   <si>
     <t>BALUKHALI-2 SLAB</t>
   </si>
   <si>
-    <t>LRP412a _B</t>
+    <t>LRP412a_B</t>
   </si>
   <si>
     <t>BALUKHALI KASTOM</t>
@@ -7099,7 +7099,7 @@
     <t>Z1504, Ukhia Gundum Road</t>
   </si>
   <si>
-    <t>LRP412b _B</t>
+    <t>LRP412b_B</t>
   </si>
   <si>
     <t>Balukali Old bus Stand Bridge</t>
@@ -7111,7 +7111,7 @@
     <t>LRP421a</t>
   </si>
   <si>
-    <t>LRP412d _B</t>
+    <t>LRP412d_B</t>
   </si>
   <si>
     <t>BAKUHHALI KASHAMIA</t>
@@ -7123,7 +7123,7 @@
     <t>LRP421c</t>
   </si>
   <si>
-    <t>LRP413a _B</t>
+    <t>LRP413a_B</t>
   </si>
   <si>
     <t>BALUKHALI</t>
@@ -7135,7 +7135,7 @@
     <t>LRP422</t>
   </si>
   <si>
-    <t>LRP413b _B</t>
+    <t>LRP413b_B</t>
   </si>
   <si>
     <t>Balukhali Boro Bridge</t>
@@ -7153,13 +7153,13 @@
     <t>LRP423</t>
   </si>
   <si>
-    <t>LRP414a _B</t>
+    <t>LRP414a_B</t>
   </si>
   <si>
     <t>GOGU GONA</t>
   </si>
   <si>
-    <t>LRP415a _B</t>
+    <t>LRP415a_B</t>
   </si>
   <si>
     <t>THANGKHALI BOX CULVERT</t>
@@ -7168,7 +7168,7 @@
     <t>LRP423a</t>
   </si>
   <si>
-    <t>LRP415b _B</t>
+    <t>LRP415b_B</t>
   </si>
   <si>
     <t>THANG KHALI BOX CULVERT</t>
@@ -7177,7 +7177,7 @@
     <t>LRP424</t>
   </si>
   <si>
-    <t>LRP415c _B</t>
+    <t>LRP415c_B</t>
   </si>
   <si>
     <t>Thang Khali Bridge</t>
@@ -7186,7 +7186,7 @@
     <t>LRP424a</t>
   </si>
   <si>
-    <t>LRP416a _B</t>
+    <t>LRP416a_B</t>
   </si>
   <si>
     <t>CHANG KHALI BRIDGE</t>
@@ -7195,7 +7195,7 @@
     <t>LRP424b</t>
   </si>
   <si>
-    <t>LRP416b _B</t>
+    <t>LRP416b_B</t>
   </si>
   <si>
     <t>LRP424c</t>
@@ -7204,7 +7204,7 @@
     <t>LRP424d</t>
   </si>
   <si>
-    <t>LRP416d _B</t>
+    <t>LRP416d_B</t>
   </si>
   <si>
     <t>Jam Toli Bridge</t>
@@ -7213,7 +7213,7 @@
     <t>LRP424e</t>
   </si>
   <si>
-    <t>LRP416e _B</t>
+    <t>LRP416e_B</t>
   </si>
   <si>
     <t>JAM TOLI BOX CULVERT</t>
@@ -7225,13 +7225,13 @@
     <t>LRP425a</t>
   </si>
   <si>
-    <t>LRP416f _B</t>
+    <t>LRP416f_B</t>
   </si>
   <si>
     <t>DAIM PARA BRIDGE</t>
   </si>
   <si>
-    <t>LRP417a _B</t>
+    <t>LRP417a_B</t>
   </si>
   <si>
     <t>DAIM PARA CULVERT</t>
@@ -7240,7 +7240,7 @@
     <t>LRP425b</t>
   </si>
   <si>
-    <t>LRP417b _B</t>
+    <t>LRP417b_B</t>
   </si>
   <si>
     <t>LRP425c</t>
@@ -7252,13 +7252,13 @@
     <t>LRP425e</t>
   </si>
   <si>
-    <t>LRP417c _B</t>
+    <t>LRP417c_B</t>
   </si>
   <si>
     <t>LRP425f</t>
   </si>
   <si>
-    <t>LRP417d _B</t>
+    <t>LRP417d_B</t>
   </si>
   <si>
     <t>LRP426</t>
@@ -7270,7 +7270,7 @@
     <t>LRP426b</t>
   </si>
   <si>
-    <t>LRP417e _B</t>
+    <t>LRP417e_B</t>
   </si>
   <si>
     <t>PALONG KHALI CULVERT</t>
@@ -7282,7 +7282,7 @@
     <t>LRP426d</t>
   </si>
   <si>
-    <t>LRP418a _B</t>
+    <t>LRP418a_B</t>
   </si>
   <si>
     <t>PALONG KHALI BAZAR (1)</t>
@@ -7294,13 +7294,13 @@
     <t>LRP427</t>
   </si>
   <si>
-    <t>LRP418b _B</t>
+    <t>LRP418b_B</t>
   </si>
   <si>
     <t>PALONG KHALI BAZAR BRIDGE</t>
   </si>
   <si>
-    <t>LRP419a _B</t>
+    <t>LRP419a_B</t>
   </si>
   <si>
     <t>PALONG KHALI RCC GIDER BRIDGE</t>
@@ -7321,7 +7321,7 @@
     <t>Teknaf 38 km</t>
   </si>
   <si>
-    <t>LRP419c _B</t>
+    <t>LRP419c_B</t>
   </si>
   <si>
     <t>KARUN TOLI RCC GIDER BRIDGE</t>
@@ -7333,19 +7333,19 @@
     <t>LRP428b</t>
   </si>
   <si>
-    <t>LRP420a _B</t>
+    <t>LRP420a_B</t>
   </si>
   <si>
     <t>GIRA TALI RCC GIDER BRIDGE</t>
   </si>
   <si>
-    <t>LRP420c _B</t>
+    <t>LRP420c_B</t>
   </si>
   <si>
     <t>GIVATOLI RCC GIDER BRIDGE</t>
   </si>
   <si>
-    <t>LRP420d _B</t>
+    <t>LRP420d_B</t>
   </si>
   <si>
     <t>GIVA TOLI RCC GIDER BRIDGE</t>
@@ -7354,7 +7354,7 @@
     <t>LRP428c</t>
   </si>
   <si>
-    <t>LRP420e _B</t>
+    <t>LRP420e_B</t>
   </si>
   <si>
     <t>GIVA TOLI BOX CULVERT</t>
@@ -7363,13 +7363,13 @@
     <t>LRP429</t>
   </si>
   <si>
-    <t>LRP420f _B</t>
+    <t>LRP420f_B</t>
   </si>
   <si>
     <t>LRP429a</t>
   </si>
   <si>
-    <t>LRP421a _B</t>
+    <t>LRP421a_B</t>
   </si>
   <si>
     <t>Kata Khali Bridge</t>
@@ -7378,7 +7378,7 @@
     <t>LRP429b</t>
   </si>
   <si>
-    <t>LRP421c _B</t>
+    <t>LRP421c_B</t>
   </si>
   <si>
     <t>ULI BANIA BOX CULVERT</t>
@@ -7396,7 +7396,7 @@
     <t>LRP429f</t>
   </si>
   <si>
-    <t>LRP421d _B</t>
+    <t>LRP421d_B</t>
   </si>
   <si>
     <t>Porbo Kata Khali Bridge</t>
@@ -7408,7 +7408,7 @@
     <t>LRP430a</t>
   </si>
   <si>
-    <t>LRP421f _B</t>
+    <t>LRP421f_B</t>
   </si>
   <si>
     <t>ULUBANIA RCC GIDER BRIDGE</t>
@@ -7417,13 +7417,13 @@
     <t>LRP430b</t>
   </si>
   <si>
-    <t>LRP422a _B</t>
+    <t>LRP422a_B</t>
   </si>
   <si>
     <t>ULIBANIA BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP422b _B</t>
+    <t>LRP422b_B</t>
   </si>
   <si>
     <t>DMONIR GONA RCC GIDER BRIDGE</t>
@@ -7444,7 +7444,7 @@
     <t>LRP431a</t>
   </si>
   <si>
-    <t>LRP422c _B</t>
+    <t>LRP422c_B</t>
   </si>
   <si>
     <t>BALUR KHALI -(1) RCC GIDER BRIDGE</t>
@@ -7453,31 +7453,31 @@
     <t>LRP431b</t>
   </si>
   <si>
-    <t>LRP423a _B</t>
+    <t>LRP423a_B</t>
   </si>
   <si>
     <t>BALU KHALI -2 BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP423b _B</t>
+    <t>LRP423b_B</t>
   </si>
   <si>
     <t>Balu Khali Bridge</t>
   </si>
   <si>
-    <t>LRP423c _B</t>
+    <t>LRP423c_B</t>
   </si>
   <si>
     <t>W HIME KANG BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP423d _B</t>
+    <t>LRP423d_B</t>
   </si>
   <si>
     <t>WHIKE KANG BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP423e _B</t>
+    <t>LRP423e_B</t>
   </si>
   <si>
     <t>LRP432</t>
@@ -7486,7 +7486,7 @@
     <t>LRP432a</t>
   </si>
   <si>
-    <t>LRP424a _B</t>
+    <t>LRP424a_B</t>
   </si>
   <si>
     <t>Wheke Kang Bridge</t>
@@ -7498,7 +7498,7 @@
     <t>LRP432c</t>
   </si>
   <si>
-    <t>LRP424b _B</t>
+    <t>LRP424b_B</t>
   </si>
   <si>
     <t>WHIKE KANG BRIDGE</t>
@@ -7507,13 +7507,13 @@
     <t>LRP432d</t>
   </si>
   <si>
-    <t>LRP424c _B</t>
+    <t>LRP424c_B</t>
   </si>
   <si>
     <t>MOA EX-KANG-BAZAR</t>
   </si>
   <si>
-    <t>LRP424e _B</t>
+    <t>LRP424e_B</t>
   </si>
   <si>
     <t>HOA EX KANG BAZAE</t>
@@ -7522,7 +7522,7 @@
     <t>LRP432e</t>
   </si>
   <si>
-    <t>LRP424g _B</t>
+    <t>LRP424g_B</t>
   </si>
   <si>
     <t>HOACX KANG BARAR</t>
@@ -7537,7 +7537,7 @@
     <t>LRP433a</t>
   </si>
   <si>
-    <t>LRP425a _B</t>
+    <t>LRP425a_B</t>
   </si>
   <si>
     <t>AMTULI BOX CULVERT</t>
@@ -7552,7 +7552,7 @@
     <t>LRP433d</t>
   </si>
   <si>
-    <t>LRP425b _B</t>
+    <t>LRP425b_B</t>
   </si>
   <si>
     <t>TASSI-PARA BAR</t>
@@ -7570,7 +7570,7 @@
     <t>LRP433g</t>
   </si>
   <si>
-    <t>LRP425c _B</t>
+    <t>LRP425c_B</t>
   </si>
   <si>
     <t>Tasse Bridge</t>
@@ -7579,7 +7579,7 @@
     <t>LRP434</t>
   </si>
   <si>
-    <t>LRP425e _B</t>
+    <t>LRP425e_B</t>
   </si>
   <si>
     <t>LAMBA-BIL PORA</t>
@@ -7588,13 +7588,13 @@
     <t>LRP434a</t>
   </si>
   <si>
-    <t>LRP426a _B</t>
+    <t>LRP426a_B</t>
   </si>
   <si>
     <t>LAMBABIL MIDDLE PARA</t>
   </si>
   <si>
-    <t>LRP426b _B</t>
+    <t>LRP426b_B</t>
   </si>
   <si>
     <t>LAMBABIL MIDDLE</t>
@@ -7603,13 +7603,13 @@
     <t>LRP434b</t>
   </si>
   <si>
-    <t>LRP426c _B</t>
+    <t>LRP426c_B</t>
   </si>
   <si>
     <t>LAMBA - BIL - (1) BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP426d _B</t>
+    <t>LRP426d_B</t>
   </si>
   <si>
     <t>LAM BA BIL (2) BOX CULVERT</t>
@@ -7618,7 +7618,7 @@
     <t>LRP434c</t>
   </si>
   <si>
-    <t>LRP426e _B</t>
+    <t>LRP426e_B</t>
   </si>
   <si>
     <t>LAMBA BIL (3) BOX CULVERT</t>
@@ -7633,7 +7633,7 @@
     <t>LRP435a</t>
   </si>
   <si>
-    <t>LRP427a _B</t>
+    <t>LRP427a_B</t>
   </si>
   <si>
     <t>LAMBA BIL BOX</t>
@@ -7645,7 +7645,7 @@
     <t>LRP435c</t>
   </si>
   <si>
-    <t>LRP427b _B</t>
+    <t>LRP427b_B</t>
   </si>
   <si>
     <t>Unchi-Prong Bridge</t>
@@ -7654,7 +7654,7 @@
     <t>LRP435d</t>
   </si>
   <si>
-    <t>LRP427d _B</t>
+    <t>LRP427d_B</t>
   </si>
   <si>
     <t>ON SIFAPAING BOX CULVERT</t>
@@ -7663,7 +7663,7 @@
     <t>LRP435e</t>
   </si>
   <si>
-    <t>LRP427e _B</t>
+    <t>LRP427e_B</t>
   </si>
   <si>
     <t>UNCHING OPLONG CULVERT (1)</t>
@@ -7675,13 +7675,13 @@
     <t>LRP436a</t>
   </si>
   <si>
-    <t>LRP428a _B</t>
+    <t>LRP428a_B</t>
   </si>
   <si>
     <t>KUTUB DIA PARA (1) CULVERT</t>
   </si>
   <si>
-    <t>LRP428b _B</t>
+    <t>LRP428b_B</t>
   </si>
   <si>
     <t>KUTUB DIA PARA CULVERT</t>
@@ -7693,7 +7693,7 @@
     <t>LRP436c</t>
   </si>
   <si>
-    <t>LRP428c _B</t>
+    <t>LRP428c_B</t>
   </si>
   <si>
     <t>KUTUB - DIA PARA (3)</t>
@@ -7702,7 +7702,7 @@
     <t>LRP436d</t>
   </si>
   <si>
-    <t>LRP428d _B</t>
+    <t>LRP428d_B</t>
   </si>
   <si>
     <t>KANGOR PARA</t>
@@ -7714,31 +7714,31 @@
     <t>LRP437</t>
   </si>
   <si>
-    <t>LRP429a _B</t>
+    <t>LRP429a_B</t>
   </si>
   <si>
     <t>KANGOR PARA MOZGID</t>
   </si>
   <si>
-    <t>LRP429b _B</t>
+    <t>LRP429b_B</t>
   </si>
   <si>
     <t>KHAN GIOR PARA (1)</t>
   </si>
   <si>
+    <t>LRP429c_B</t>
+  </si>
+  <si>
+    <t>KHANGOR PRAMARY (2)</t>
+  </si>
+  <si>
     <t>LRP437a</t>
   </si>
   <si>
-    <t>LRP429c _B</t>
-  </si>
-  <si>
-    <t>KHANGOR PRAMARY (2)</t>
-  </si>
-  <si>
     <t>LRP437b</t>
   </si>
   <si>
-    <t>LRP429d _B</t>
+    <t>LRP429d_B</t>
   </si>
   <si>
     <t>KHAN GOR PARA BRIDGE</t>
@@ -7753,7 +7753,7 @@
     <t>Box culvert / Box culvert</t>
   </si>
   <si>
-    <t>LRP429f _B</t>
+    <t>LRP429f_B</t>
   </si>
   <si>
     <t>RHANCHOR PARA BOX CULVERT</t>
@@ -7762,7 +7762,7 @@
     <t>LRP438</t>
   </si>
   <si>
-    <t>LRP430a _B</t>
+    <t>LRP430a_B</t>
   </si>
   <si>
     <t>KHANCHOR PARA (2)</t>
@@ -7771,7 +7771,7 @@
     <t>LRP438a</t>
   </si>
   <si>
-    <t>LRP430b _B</t>
+    <t>LRP430b_B</t>
   </si>
   <si>
     <t>KHANCHOR PARA- BOX CULVERT</t>
@@ -7783,7 +7783,7 @@
     <t>LRP438c</t>
   </si>
   <si>
-    <t>LRP430c _B</t>
+    <t>LRP430c_B</t>
   </si>
   <si>
     <t>NOYA PARA (1) BOX CULVERT</t>
@@ -7792,7 +7792,7 @@
     <t>LRP438d</t>
   </si>
   <si>
-    <t>LRP430d _B</t>
+    <t>LRP430d_B</t>
   </si>
   <si>
     <t>NOYA PARA (1) BRIDGE</t>
@@ -7801,7 +7801,7 @@
     <t>LRP438e</t>
   </si>
   <si>
-    <t>LRP431a _B</t>
+    <t>LRP431a_B</t>
   </si>
   <si>
     <t>NAYAPARA</t>
@@ -7813,7 +7813,7 @@
     <t>LRP439a</t>
   </si>
   <si>
-    <t>LRP431b _B</t>
+    <t>LRP431b_B</t>
   </si>
   <si>
     <t>NOYA PARA</t>
@@ -7822,13 +7822,13 @@
     <t>LRP439b</t>
   </si>
   <si>
-    <t>LRP431c _B</t>
+    <t>LRP431c_B</t>
   </si>
   <si>
     <t>GIMON KHALI BRIDGE</t>
   </si>
   <si>
-    <t>LRP431d _B</t>
+    <t>LRP431d_B</t>
   </si>
   <si>
     <t>GIM - MOGARI BRIDGE</t>
@@ -7846,7 +7846,7 @@
     <t>LRP440a</t>
   </si>
   <si>
-    <t>LRP432a _B</t>
+    <t>LRP432a_B</t>
   </si>
   <si>
     <t>NINA BAZAR BOX CULVERT</t>
@@ -7858,7 +7858,7 @@
     <t>LRP440c</t>
   </si>
   <si>
-    <t>LRP432b _B</t>
+    <t>LRP432b_B</t>
   </si>
   <si>
     <t>Noya Bazar(1) Bridge</t>
@@ -7870,7 +7870,7 @@
     <t>LRP440e</t>
   </si>
   <si>
-    <t>LRP433a _B</t>
+    <t>LRP433a_B</t>
   </si>
   <si>
     <t>NOYA BAZAR CULVERT</t>
@@ -7879,7 +7879,7 @@
     <t>LRP441</t>
   </si>
   <si>
-    <t>LRP433b _B</t>
+    <t>LRP433b_B</t>
   </si>
   <si>
     <t>Naya Bazar(2) Bridge</t>
@@ -7888,13 +7888,13 @@
     <t>LRP441a</t>
   </si>
   <si>
-    <t>LRP433c _B</t>
+    <t>LRP433c_B</t>
   </si>
   <si>
     <t>Naya Bazar(3) Bridge</t>
   </si>
   <si>
-    <t>LRP433d _B</t>
+    <t>LRP433d_B</t>
   </si>
   <si>
     <t>KHARANG KHALI - BOX CUVERT (1)</t>
@@ -7915,7 +7915,7 @@
     <t>LRP442a</t>
   </si>
   <si>
-    <t>LRP434a _B</t>
+    <t>LRP434a_B</t>
   </si>
   <si>
     <t>KHARANG KHAIL</t>
@@ -7927,7 +7927,7 @@
     <t>LRP442c</t>
   </si>
   <si>
-    <t>LRP434b _B</t>
+    <t>LRP434b_B</t>
   </si>
   <si>
     <t>MOULIVI BAZAR FISHARI BRIDGE</t>
@@ -7942,7 +7942,7 @@
     <t>Teknaf 23 km</t>
   </si>
   <si>
-    <t>LRP435a _B</t>
+    <t>LRP435a_B</t>
   </si>
   <si>
     <t>MOULOVI BAZAR BOX CULVERT (1)</t>
@@ -7951,13 +7951,13 @@
     <t>LRP443a</t>
   </si>
   <si>
-    <t>LRP435b _B</t>
+    <t>LRP435b_B</t>
   </si>
   <si>
     <t>MOULOVI BAZAR BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP435c _B</t>
+    <t>LRP435c_B</t>
   </si>
   <si>
     <t>ALI AXBAR PARA BOX CULVERT</t>
@@ -7969,7 +7969,7 @@
     <t>LRP443c</t>
   </si>
   <si>
-    <t>LRP436a _B</t>
+    <t>LRP436a_B</t>
   </si>
   <si>
     <t>Nila-Hoab Rabg Bridge</t>
@@ -7987,7 +7987,7 @@
     <t>LRP444b</t>
   </si>
   <si>
-    <t>LRP437a _B</t>
+    <t>LRP437a_B</t>
   </si>
   <si>
     <t>NILLA BOX CULVERT (1)</t>
@@ -7996,7 +7996,7 @@
     <t>LRP444c</t>
   </si>
   <si>
-    <t>LRP437b _B</t>
+    <t>LRP437b_B</t>
   </si>
   <si>
     <t>NILA. BARAR BOX CULVERT</t>
@@ -8011,7 +8011,7 @@
     <t>LRP445b</t>
   </si>
   <si>
-    <t>LRP438a _B</t>
+    <t>LRP438a_B</t>
   </si>
   <si>
     <t>NILA - DORGA- PARA-(1) BOX</t>
@@ -8023,7 +8023,7 @@
     <t>Infor.missing</t>
   </si>
   <si>
-    <t>LRP438b _B</t>
+    <t>LRP438b_B</t>
   </si>
   <si>
     <t>NILA DOGA PARA BOX CULVERT</t>
@@ -8032,7 +8032,7 @@
     <t>LRP446a</t>
   </si>
   <si>
-    <t>LRP438c _B</t>
+    <t>LRP438c_B</t>
   </si>
   <si>
     <t>NAT MURA PARA BOX CULVERT</t>
@@ -8050,7 +8050,7 @@
     <t>LRP447a</t>
   </si>
   <si>
-    <t>LRP439a _B</t>
+    <t>LRP439a_B</t>
   </si>
   <si>
     <t>Chowdhory Para Bridge</t>
@@ -8062,7 +8062,7 @@
     <t>LRP447c</t>
   </si>
   <si>
-    <t>LRP439c _B</t>
+    <t>LRP439c_B</t>
   </si>
   <si>
     <t>RONGI HALI BOX CULVERT</t>
@@ -8074,7 +8074,7 @@
     <t>Teknaf 29 km</t>
   </si>
   <si>
-    <t>LRP440a _B</t>
+    <t>LRP440a_B</t>
   </si>
   <si>
     <t>RONGI- KHALI RCC GIDER BRIDGE</t>
@@ -8095,7 +8095,7 @@
     <t>Teknaf 18 km</t>
   </si>
   <si>
-    <t>LRP441a _B</t>
+    <t>LRP441a_B</t>
   </si>
   <si>
     <t>ALA KHALI KUNA PARA</t>
@@ -8107,13 +8107,13 @@
     <t>LRP450</t>
   </si>
   <si>
-    <t>LRP442a _B</t>
+    <t>LRP442a_B</t>
   </si>
   <si>
     <t>LADA BAZAR BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP443a _B</t>
+    <t>LRP443a_B</t>
   </si>
   <si>
     <t>LADAPARA RCC GIDER BRIDGE</t>
@@ -8128,13 +8128,13 @@
     <t>LRP451</t>
   </si>
   <si>
-    <t>LRP443c _B</t>
+    <t>LRP443c_B</t>
   </si>
   <si>
     <t>NAYAPARA BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP443d _B</t>
+    <t>LRP443d_B</t>
   </si>
   <si>
     <t>Noya Para Bridge</t>
@@ -8143,7 +8143,7 @@
     <t>LRP451a</t>
   </si>
   <si>
-    <t>LRP444a _B</t>
+    <t>LRP444a_B</t>
   </si>
   <si>
     <t>NAYA PARA BOX CULVERT</t>
@@ -8152,7 +8152,7 @@
     <t>LRP452</t>
   </si>
   <si>
-    <t>LRP444b _B</t>
+    <t>LRP444b_B</t>
   </si>
   <si>
     <t>MOSINNI RCC GIDER BRIDGE</t>
@@ -8164,19 +8164,19 @@
     <t>LRP452b</t>
   </si>
   <si>
-    <t>LRP444c _B</t>
+    <t>LRP444c_B</t>
   </si>
   <si>
     <t>NOYA PARA CULVERT</t>
   </si>
   <si>
-    <t>LRP444d _B</t>
+    <t>LRP444d_B</t>
   </si>
   <si>
     <t>LRP452c</t>
   </si>
   <si>
-    <t>LRP444e _B</t>
+    <t>LRP444e_B</t>
   </si>
   <si>
     <t>NOYA PARA (MUSJID) BOX CULVERT(L)</t>
@@ -8188,13 +8188,13 @@
     <t>LRP452e</t>
   </si>
   <si>
-    <t>LRP445a _B</t>
+    <t>LRP445a_B</t>
   </si>
   <si>
     <t>LRP453</t>
   </si>
   <si>
-    <t>LRP445b _B</t>
+    <t>LRP445b_B</t>
   </si>
   <si>
     <t>Jadirghat Bridge</t>
@@ -8203,7 +8203,7 @@
     <t>LRP453a</t>
   </si>
   <si>
-    <t>LRP445d _B</t>
+    <t>LRP445d_B</t>
   </si>
   <si>
     <t>JADIMORH BOX CULVERT</t>
@@ -8212,7 +8212,7 @@
     <t>LRP453b</t>
   </si>
   <si>
-    <t>LRP446a _B</t>
+    <t>LRP446a_B</t>
   </si>
   <si>
     <t>Jadimura bridge</t>
@@ -8233,7 +8233,7 @@
     <t>LRP454a</t>
   </si>
   <si>
-    <t>LRP446b _B</t>
+    <t>LRP446b_B</t>
   </si>
   <si>
     <t>DOMDO MIA BRIDGE</t>
@@ -8242,7 +8242,7 @@
     <t>LRP454b</t>
   </si>
   <si>
-    <t>LRP446d _B</t>
+    <t>LRP446d_B</t>
   </si>
   <si>
     <t>DONDO MIA BOX CULVERT</t>
@@ -8251,13 +8251,13 @@
     <t>LRP454c</t>
   </si>
   <si>
-    <t>LRP447a _B</t>
+    <t>LRP447a_B</t>
   </si>
   <si>
     <t>LRP454d</t>
   </si>
   <si>
-    <t>LRP447b _B</t>
+    <t>LRP447b_B</t>
   </si>
   <si>
     <t>DOMMO MIA BOX CULVERT</t>
@@ -8269,7 +8269,7 @@
     <t>LRP455a</t>
   </si>
   <si>
-    <t>LRP447c _B</t>
+    <t>LRP447c_B</t>
   </si>
   <si>
     <t>DHANDO MIA</t>
@@ -8278,7 +8278,7 @@
     <t>LRP455b</t>
   </si>
   <si>
-    <t>LRP448a _B</t>
+    <t>LRP448a_B</t>
   </si>
   <si>
     <t>DONDO MIA CHAK POST BRIDGE</t>
@@ -8302,16 +8302,16 @@
     <t>LRP456d</t>
   </si>
   <si>
-    <t>LRP448c _B</t>
-  </si>
-  <si>
-    <t>LRP449a _B</t>
+    <t>LRP448c_B</t>
+  </si>
+  <si>
+    <t>LRP449a_B</t>
   </si>
   <si>
     <t>DOMDO MIA</t>
   </si>
   <si>
-    <t>LRP449c _B</t>
+    <t>LRP449c_B</t>
   </si>
   <si>
     <t>DONDOMIA</t>
@@ -8323,7 +8323,7 @@
     <t>LRP456f</t>
   </si>
   <si>
-    <t>LRP449d _B</t>
+    <t>LRP449d_B</t>
   </si>
   <si>
     <t>DONOMIA</t>
@@ -8332,7 +8332,7 @@
     <t>LRP457</t>
   </si>
   <si>
-    <t>LRP449f _B</t>
+    <t>LRP449f_B</t>
   </si>
   <si>
     <t>DONMIA</t>
@@ -8344,7 +8344,7 @@
     <t>LRP457b</t>
   </si>
   <si>
-    <t>LRP450a _B</t>
+    <t>LRP450a_B</t>
   </si>
   <si>
     <t>Karumtoli Bridge</t>
@@ -8359,7 +8359,7 @@
     <t>LRP457e</t>
   </si>
   <si>
-    <t>LRP450c _B</t>
+    <t>LRP450c_B</t>
   </si>
   <si>
     <t>KARUNTON BOX CULVERT</t>
@@ -8371,7 +8371,7 @@
     <t>Teknaf 8 km</t>
   </si>
   <si>
-    <t>LRP450d _B</t>
+    <t>LRP450d_B</t>
   </si>
   <si>
     <t>Karumtoli choto(1) Bridge</t>
@@ -8380,7 +8380,7 @@
     <t>LRP458a</t>
   </si>
   <si>
-    <t>LRP450e _B</t>
+    <t>LRP450e_B</t>
   </si>
   <si>
     <t>Sholo Bandar Teknaf Bridge</t>
@@ -8392,13 +8392,13 @@
     <t>LRP458c</t>
   </si>
   <si>
-    <t>LRP451a _B</t>
+    <t>LRP451a_B</t>
   </si>
   <si>
     <t>KAKUM TOLI CHACK BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP451b _B</t>
+    <t>LRP451b_B</t>
   </si>
   <si>
     <t>KARUMTOLI (3)BOX CULVERT</t>
@@ -8410,7 +8410,7 @@
     <t>LRP458e</t>
   </si>
   <si>
-    <t>LRP451c _B</t>
+    <t>LRP451c_B</t>
   </si>
   <si>
     <t>KARUMTOLI</t>
@@ -8425,25 +8425,25 @@
     <t>Teknaf 7 km</t>
   </si>
   <si>
-    <t>LRP451e _B</t>
+    <t>LRP451e_B</t>
   </si>
   <si>
     <t>KARUM TOLI BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP451f _B</t>
+    <t>LRP451f_B</t>
   </si>
   <si>
     <t>KARUMTOLI BRIDGE</t>
   </si>
   <si>
-    <t>LRP451h _B</t>
+    <t>LRP451h_B</t>
   </si>
   <si>
     <t>Karumtoli (3) Bridge</t>
   </si>
   <si>
-    <t>LRP451i _B</t>
+    <t>LRP451i_B</t>
   </si>
   <si>
     <t>Polashir Bridge</t>
@@ -8455,13 +8455,13 @@
     <t>LRP459b</t>
   </si>
   <si>
-    <t>LRP452a _B</t>
+    <t>LRP452a_B</t>
   </si>
   <si>
     <t>Baroy toli (1) Bridge</t>
   </si>
   <si>
-    <t>LRP452c _B</t>
+    <t>LRP452c_B</t>
   </si>
   <si>
     <t>BORY TOLI SLAB CULVERT</t>
@@ -8470,7 +8470,7 @@
     <t>LRP459c</t>
   </si>
   <si>
-    <t>LRP452d _B</t>
+    <t>LRP452d_B</t>
   </si>
   <si>
     <t>BORYTOLI SLAB CULVERT</t>
@@ -8479,7 +8479,7 @@
     <t>LRP459d</t>
   </si>
   <si>
-    <t>LRP452e _B</t>
+    <t>LRP452e_B</t>
   </si>
   <si>
     <t>BARITOLI BOX CULVERT</t>
@@ -8491,19 +8491,19 @@
     <t>LRP460a</t>
   </si>
   <si>
-    <t>LRP452f _B</t>
+    <t>LRP452f_B</t>
   </si>
   <si>
     <t>BAROY TOLI RCC GIDER BRIDGE</t>
   </si>
   <si>
-    <t>LRP452h _B</t>
+    <t>LRP452h_B</t>
   </si>
   <si>
     <t>LRP460b</t>
   </si>
   <si>
-    <t>LRP452i _B</t>
+    <t>LRP452i_B</t>
   </si>
   <si>
     <t>BARIY TOLI RCC GIDER BRIDGE</t>
@@ -8512,7 +8512,7 @@
     <t>LRP460c</t>
   </si>
   <si>
-    <t>LRP452j _B</t>
+    <t>LRP452j_B</t>
   </si>
   <si>
     <t>NAITAN PARA RCC GIDER BRIDGE</t>
@@ -8542,7 +8542,7 @@
     <t>LRP461b</t>
   </si>
   <si>
-    <t>LRP453a _B</t>
+    <t>LRP453a_B</t>
   </si>
   <si>
     <t>NAITOM PARA RCC GIDER BRIDGE</t>
@@ -8560,7 +8560,7 @@
     <t>LRP461f</t>
   </si>
   <si>
-    <t>LRP454a _B</t>
+    <t>LRP454a_B</t>
   </si>
   <si>
     <t>Naitong Para (3) Bridge</t>
@@ -8584,7 +8584,7 @@
     <t>LRP462</t>
   </si>
   <si>
-    <t>LRP454b _B</t>
+    <t>LRP454b_B</t>
   </si>
   <si>
     <t>LRP462a</t>
@@ -8599,7 +8599,7 @@
     <t>Teknaf 4 km</t>
   </si>
   <si>
-    <t>LRP455a _B</t>
+    <t>LRP455a_B</t>
   </si>
   <si>
     <t>Eskahal Bridge</t>
@@ -8617,19 +8617,19 @@
     <t>LRP464a</t>
   </si>
   <si>
-    <t>LRP456a _B</t>
+    <t>LRP456a_B</t>
   </si>
   <si>
     <t>BUS STAND TEKNAF BOX CULVERT</t>
   </si>
   <si>
-    <t>LRP456b _B</t>
+    <t>LRP456b_B</t>
   </si>
   <si>
     <t>LRP464b</t>
   </si>
   <si>
-    <t>LRP456c _B</t>
+    <t>LRP456c_B</t>
   </si>
   <si>
     <t>YAKNAT BRIDGE</t>
@@ -9509,10 +9509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1967"/>
+  <dimension ref="A1:P1968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1949" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9596,19 +9596,19 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1970</v>
+        <v>15760</v>
       </c>
       <c r="K2">
-        <v>1401.625</v>
+        <v>11213</v>
       </c>
       <c r="L2">
-        <v>647.125</v>
+        <v>5177</v>
       </c>
       <c r="M2">
-        <v>790.25</v>
+        <v>6322</v>
       </c>
       <c r="N2">
-        <v>302.75</v>
+        <v>2422</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -9696,19 +9696,19 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O4">
         <v>8</v>
@@ -10046,19 +10046,19 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>-1219.4000000000001</v>
+        <v>-6097</v>
       </c>
       <c r="K11">
-        <v>80.2</v>
+        <v>401</v>
       </c>
       <c r="L11">
-        <v>-253.2</v>
+        <v>-1266</v>
       </c>
       <c r="M11">
-        <v>44.6</v>
+        <v>223</v>
       </c>
       <c r="N11">
-        <v>12.6</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -10296,19 +10296,19 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>-68.75</v>
+        <v>-550</v>
       </c>
       <c r="K16">
-        <v>-134.25</v>
+        <v>-1074</v>
       </c>
       <c r="L16">
-        <v>35.125</v>
+        <v>281</v>
       </c>
       <c r="M16">
-        <v>200.875</v>
+        <v>1607</v>
       </c>
       <c r="N16">
-        <v>106.375</v>
+        <v>851</v>
       </c>
       <c r="O16">
         <v>8</v>
@@ -10546,16 +10546,16 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <v>1824.25</v>
+        <v>7297</v>
       </c>
       <c r="K21">
-        <v>1343.25</v>
+        <v>5373</v>
       </c>
       <c r="L21">
-        <v>21.5</v>
+        <v>86</v>
       </c>
       <c r="M21">
-        <v>94.75</v>
+        <v>379</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -11396,19 +11396,19 @@
         <v>6</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O38">
         <v>8</v>
@@ -12046,19 +12046,19 @@
         <v>7</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O51">
         <v>4</v>
@@ -13046,19 +13046,19 @@
         <v>8</v>
       </c>
       <c r="J71">
-        <v>-844.25</v>
+        <v>-3377</v>
       </c>
       <c r="K71">
-        <v>-1943.25</v>
+        <v>-7773</v>
       </c>
       <c r="L71">
-        <v>154.75</v>
+        <v>619</v>
       </c>
       <c r="M71">
-        <v>-1405.75</v>
+        <v>-5623</v>
       </c>
       <c r="N71">
-        <v>-735.25</v>
+        <v>-2941</v>
       </c>
       <c r="O71">
         <v>4</v>
@@ -13846,19 +13846,19 @@
         <v>9</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O87">
         <v>4</v>
@@ -15346,19 +15346,19 @@
         <v>10</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O117">
         <v>4</v>
@@ -16546,19 +16546,19 @@
         <v>11</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O141">
         <v>5</v>
@@ -16846,19 +16846,19 @@
         <v>12</v>
       </c>
       <c r="J147">
-        <v>-208.5</v>
+        <v>-834</v>
       </c>
       <c r="K147">
-        <v>-571</v>
+        <v>-2284</v>
       </c>
       <c r="L147">
-        <v>-481.75</v>
+        <v>-1927</v>
       </c>
       <c r="M147">
-        <v>-248</v>
+        <v>-992</v>
       </c>
       <c r="N147">
-        <v>-18</v>
+        <v>-72</v>
       </c>
       <c r="O147">
         <v>4</v>
@@ -17846,19 +17846,19 @@
         <v>13</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L167">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M167">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N167">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O167">
         <v>6</v>
@@ -18046,19 +18046,19 @@
         <v>14</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L171">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M171">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N171">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O171">
         <v>6</v>
@@ -19046,19 +19046,19 @@
         <v>15</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N191">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O191">
         <v>6</v>
@@ -19696,19 +19696,19 @@
         <v>16</v>
       </c>
       <c r="J204">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L204">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M204">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N204">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O204">
         <v>6</v>
@@ -20546,19 +20546,19 @@
         <v>17</v>
       </c>
       <c r="J221">
-        <v>124.333333333333</v>
+        <v>746</v>
       </c>
       <c r="K221">
-        <v>125.833333333333</v>
+        <v>755</v>
       </c>
       <c r="L221">
-        <v>15.8333333333333</v>
+        <v>95</v>
       </c>
       <c r="M221">
-        <v>516</v>
+        <v>3096</v>
       </c>
       <c r="N221">
-        <v>43.1666666666667</v>
+        <v>259</v>
       </c>
       <c r="O221">
         <v>6</v>
@@ -21296,19 +21296,19 @@
         <v>18</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L236">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N236">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O236">
         <v>6</v>
@@ -21996,19 +21996,19 @@
         <v>19</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K250">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L250">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M250">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N250">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O250">
         <v>6</v>
@@ -22396,19 +22396,19 @@
         <v>20</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K258">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L258">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M258">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N258">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O258">
         <v>6</v>
@@ -22596,19 +22596,19 @@
         <v>21</v>
       </c>
       <c r="J262">
-        <v>101.833333333333</v>
+        <v>611</v>
       </c>
       <c r="K262">
-        <v>-380.5</v>
+        <v>-2283</v>
       </c>
       <c r="L262">
-        <v>-161.5</v>
+        <v>-969</v>
       </c>
       <c r="M262">
-        <v>-236.166666666667</v>
+        <v>-1417</v>
       </c>
       <c r="N262">
-        <v>-26.5</v>
+        <v>-159</v>
       </c>
       <c r="O262">
         <v>6</v>
@@ -22796,19 +22796,19 @@
         <v>22</v>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K266">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L266">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M266">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N266">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O266">
         <v>6</v>
@@ -23146,19 +23146,19 @@
         <v>23</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K273">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L273">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M273">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N273">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O273">
         <v>6</v>
@@ -24946,19 +24946,19 @@
         <v>24</v>
       </c>
       <c r="J309">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K309">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L309">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M309">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N309">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O309">
         <v>6</v>
@@ -27746,19 +27746,19 @@
         <v>25</v>
       </c>
       <c r="J365">
-        <v>-626.16666666666697</v>
+        <v>-3757</v>
       </c>
       <c r="K365">
-        <v>-134.5</v>
+        <v>-807</v>
       </c>
       <c r="L365">
-        <v>-73.6666666666667</v>
+        <v>-442</v>
       </c>
       <c r="M365">
-        <v>-204.833333333333</v>
+        <v>-1229</v>
       </c>
       <c r="N365">
-        <v>-19.6666666666667</v>
+        <v>-118</v>
       </c>
       <c r="O365">
         <v>6</v>
@@ -31296,19 +31296,19 @@
         <v>26</v>
       </c>
       <c r="J436">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K436">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L436">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M436">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N436">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O436">
         <v>6</v>
@@ -31446,19 +31446,19 @@
         <v>27</v>
       </c>
       <c r="J439">
-        <v>595.33333333333303</v>
+        <v>3572</v>
       </c>
       <c r="K439">
-        <v>641</v>
+        <v>3846</v>
       </c>
       <c r="L439">
-        <v>56.6666666666667</v>
+        <v>340</v>
       </c>
       <c r="M439">
-        <v>213.166666666667</v>
+        <v>1279</v>
       </c>
       <c r="N439">
-        <v>66.3333333333333</v>
+        <v>398</v>
       </c>
       <c r="O439">
         <v>6</v>
@@ -31896,19 +31896,19 @@
         <v>28</v>
       </c>
       <c r="J448">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K448">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L448">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M448">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N448">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O448">
         <v>6</v>
@@ -32196,19 +32196,19 @@
         <v>29</v>
       </c>
       <c r="J454">
-        <v>342.33333333333297</v>
+        <v>2054</v>
       </c>
       <c r="K454">
-        <v>-92</v>
+        <v>-552</v>
       </c>
       <c r="L454">
-        <v>116.166666666667</v>
+        <v>697</v>
       </c>
       <c r="M454">
-        <v>-50.5</v>
+        <v>-303</v>
       </c>
       <c r="N454">
-        <v>-20.5</v>
+        <v>-123</v>
       </c>
       <c r="O454">
         <v>6</v>
@@ -32696,19 +32696,19 @@
         <v>30</v>
       </c>
       <c r="J464">
-        <v>-385.66666666666703</v>
+        <v>-2314</v>
       </c>
       <c r="K464">
-        <v>-293.66666666666703</v>
+        <v>-1762</v>
       </c>
       <c r="L464">
-        <v>-61.3333333333333</v>
+        <v>-368</v>
       </c>
       <c r="M464">
-        <v>-210.166666666667</v>
+        <v>-1261</v>
       </c>
       <c r="N464">
-        <v>28.8333333333333</v>
+        <v>173</v>
       </c>
       <c r="O464">
         <v>6</v>
@@ -33346,19 +33346,19 @@
         <v>31</v>
       </c>
       <c r="J477">
-        <v>385.66666666666703</v>
+        <v>2314</v>
       </c>
       <c r="K477">
-        <v>293.66666666666703</v>
+        <v>1762</v>
       </c>
       <c r="L477">
-        <v>61.3333333333333</v>
+        <v>368</v>
       </c>
       <c r="M477">
-        <v>210.166666666667</v>
+        <v>1261</v>
       </c>
       <c r="N477">
-        <v>-28.8333333333333</v>
+        <v>-173</v>
       </c>
       <c r="O477">
         <v>6</v>
@@ -33796,19 +33796,19 @@
         <v>32</v>
       </c>
       <c r="J486">
-        <v>-780.5</v>
+        <v>-4683</v>
       </c>
       <c r="K486">
-        <v>-260.33333333333297</v>
+        <v>-1562</v>
       </c>
       <c r="L486">
-        <v>-92.5</v>
+        <v>-555</v>
       </c>
       <c r="M486">
-        <v>312</v>
+        <v>1872</v>
       </c>
       <c r="N486">
-        <v>22.8333333333333</v>
+        <v>137</v>
       </c>
       <c r="O486">
         <v>6</v>
@@ -34496,19 +34496,19 @@
         <v>33</v>
       </c>
       <c r="J500">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K500">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L500">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M500">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N500">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O500">
         <v>6</v>
@@ -34634,13 +34634,13 @@
         <v>91.535471900000005</v>
       </c>
       <c r="F503" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G503" t="s">
-        <v>745</v>
+        <v>28</v>
       </c>
       <c r="H503" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I503">
         <v>33</v>
@@ -34664,7 +34664,7 @@
         <v>6</v>
       </c>
       <c r="P503" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="504" spans="1:16" x14ac:dyDescent="0.3">
@@ -34675,7 +34675,7 @@
         <v>167.96299999999999</v>
       </c>
       <c r="C504" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D504">
         <v>22.8916386</v>
@@ -34684,13 +34684,13 @@
         <v>91.535471900000005</v>
       </c>
       <c r="F504" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G504" t="s">
-        <v>28</v>
+        <v>746</v>
       </c>
       <c r="H504" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I504">
         <v>33</v>
@@ -37296,19 +37296,19 @@
         <v>34</v>
       </c>
       <c r="J556">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K556">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L556">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M556">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N556">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O556">
         <v>6</v>
@@ -39846,19 +39846,19 @@
         <v>35</v>
       </c>
       <c r="J607">
-        <v>727.66666666666697</v>
+        <v>4366</v>
       </c>
       <c r="K607">
-        <v>138.833333333333</v>
+        <v>833</v>
       </c>
       <c r="L607">
-        <v>-8.8333333333333304</v>
+        <v>-53</v>
       </c>
       <c r="M607">
-        <v>208.5</v>
+        <v>1251</v>
       </c>
       <c r="N607">
-        <v>20.5</v>
+        <v>123</v>
       </c>
       <c r="O607">
         <v>6</v>
@@ -42746,19 +42746,19 @@
         <v>36</v>
       </c>
       <c r="J665">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K665">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L665">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M665">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N665">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O665">
         <v>6</v>
@@ -47246,19 +47246,19 @@
         <v>37</v>
       </c>
       <c r="J755">
-        <v>-2195.6666666666702</v>
+        <v>-13174</v>
       </c>
       <c r="K755">
-        <v>-596.66666666666697</v>
+        <v>-3580</v>
       </c>
       <c r="L755">
-        <v>-199.166666666667</v>
+        <v>-1195</v>
       </c>
       <c r="M755">
-        <v>-481.66666666666703</v>
+        <v>-2890</v>
       </c>
       <c r="N755">
-        <v>-32.1666666666667</v>
+        <v>-193</v>
       </c>
       <c r="O755">
         <v>6</v>
@@ -48246,19 +48246,19 @@
         <v>38</v>
       </c>
       <c r="J775">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K775">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L775">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M775">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N775">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O775">
         <v>2</v>
@@ -49696,19 +49696,19 @@
         <v>39</v>
       </c>
       <c r="J804">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K804">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L804">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M804">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N804">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O804">
         <v>2</v>
@@ -50396,19 +50396,19 @@
         <v>40</v>
       </c>
       <c r="J818">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K818">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L818">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M818">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N818">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O818">
         <v>2</v>
@@ -51046,19 +51046,19 @@
         <v>41</v>
       </c>
       <c r="J831">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K831">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L831">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M831">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N831">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O831">
         <v>2</v>
@@ -51546,19 +51546,19 @@
         <v>42</v>
       </c>
       <c r="J841">
-        <v>-16</v>
+        <v>-32</v>
       </c>
       <c r="K841">
-        <v>314.5</v>
+        <v>629</v>
       </c>
       <c r="L841">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="M841">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="N841">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O841">
         <v>2</v>
@@ -51796,19 +51796,19 @@
         <v>43</v>
       </c>
       <c r="J846">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K846">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L846">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M846">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N846">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O846">
         <v>2</v>
@@ -52646,19 +52646,19 @@
         <v>44</v>
       </c>
       <c r="J863">
-        <v>92.5</v>
+        <v>185</v>
       </c>
       <c r="K863">
-        <v>-193.5</v>
+        <v>-387</v>
       </c>
       <c r="L863">
-        <v>36.5</v>
+        <v>73</v>
       </c>
       <c r="M863">
-        <v>659.5</v>
+        <v>1319</v>
       </c>
       <c r="N863">
-        <v>1764</v>
+        <v>3528</v>
       </c>
       <c r="O863">
         <v>2</v>
@@ -52746,19 +52746,19 @@
         <v>45</v>
       </c>
       <c r="J865">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K865">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L865">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M865">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N865">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O865">
         <v>2</v>
@@ -53096,19 +53096,19 @@
         <v>46</v>
       </c>
       <c r="J872">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K872">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L872">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M872">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N872">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O872">
         <v>2</v>
@@ -55196,19 +55196,19 @@
         <v>47</v>
       </c>
       <c r="J914">
-        <v>-20.5</v>
+        <v>-41</v>
       </c>
       <c r="K914">
-        <v>-222.5</v>
+        <v>-445</v>
       </c>
       <c r="L914">
-        <v>-58</v>
+        <v>-116</v>
       </c>
       <c r="M914">
-        <v>1215</v>
+        <v>2430</v>
       </c>
       <c r="N914">
-        <v>-1456</v>
+        <v>-2912</v>
       </c>
       <c r="O914">
         <v>2</v>
@@ -55696,19 +55696,19 @@
         <v>48</v>
       </c>
       <c r="J924">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K924">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L924">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M924">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N924">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O924">
         <v>2</v>
@@ -57546,19 +57546,19 @@
         <v>49</v>
       </c>
       <c r="J961">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K961">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L961">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M961">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N961">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O961">
         <v>2</v>
@@ -57696,19 +57696,19 @@
         <v>50</v>
       </c>
       <c r="J964">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K964">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L964">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M964">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N964">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O964">
         <v>2</v>
@@ -59196,19 +59196,19 @@
         <v>51</v>
       </c>
       <c r="J994">
-        <v>787.5</v>
+        <v>1575</v>
       </c>
       <c r="K994">
-        <v>762</v>
+        <v>1524</v>
       </c>
       <c r="L994">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="M994">
-        <v>-2481.5</v>
+        <v>-4963</v>
       </c>
       <c r="N994">
-        <v>153.5</v>
+        <v>307</v>
       </c>
       <c r="O994">
         <v>2</v>
@@ -61696,19 +61696,19 @@
         <v>52</v>
       </c>
       <c r="J1044">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1044">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1044">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1044">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1044">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1044">
         <v>2</v>
@@ -63646,19 +63646,19 @@
         <v>53</v>
       </c>
       <c r="J1083">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1083">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1083">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1083">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1083">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1083">
         <v>2</v>
@@ -63746,19 +63746,19 @@
         <v>54</v>
       </c>
       <c r="J1085">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1085">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1085">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1085">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1085">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1085">
         <v>2</v>
@@ -65196,19 +65196,19 @@
         <v>55</v>
       </c>
       <c r="J1114">
-        <v>-1277</v>
+        <v>-2554</v>
       </c>
       <c r="K1114">
-        <v>-938</v>
+        <v>-1876</v>
       </c>
       <c r="L1114">
-        <v>-247.5</v>
+        <v>-495</v>
       </c>
       <c r="M1114">
-        <v>-381</v>
+        <v>-762</v>
       </c>
       <c r="N1114">
-        <v>-435</v>
+        <v>-870</v>
       </c>
       <c r="O1114">
         <v>2</v>
@@ -65796,19 +65796,19 @@
         <v>56</v>
       </c>
       <c r="J1126">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1126">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1126">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1126">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1126">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1126">
         <v>2</v>
@@ -66596,19 +66596,19 @@
         <v>57</v>
       </c>
       <c r="J1142">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1142">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1142">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1142">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1142">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1142">
         <v>2</v>
@@ -66946,19 +66946,19 @@
         <v>58</v>
       </c>
       <c r="J1149">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1149">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1149">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1149">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1149">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1149">
         <v>2</v>
@@ -67046,19 +67046,19 @@
         <v>59</v>
       </c>
       <c r="J1151">
-        <v>265</v>
+        <v>530</v>
       </c>
       <c r="K1151">
-        <v>44.5</v>
+        <v>89</v>
       </c>
       <c r="L1151">
-        <v>-190</v>
+        <v>-380</v>
       </c>
       <c r="M1151">
-        <v>1134.5</v>
+        <v>2269</v>
       </c>
       <c r="N1151">
-        <v>2055.5</v>
+        <v>4111</v>
       </c>
       <c r="O1151">
         <v>2</v>
@@ -67846,19 +67846,19 @@
         <v>60</v>
       </c>
       <c r="J1167">
-        <v>-404</v>
+        <v>-808</v>
       </c>
       <c r="K1167">
-        <v>-366</v>
+        <v>-732</v>
       </c>
       <c r="L1167">
-        <v>-128</v>
+        <v>-256</v>
       </c>
       <c r="M1167">
-        <v>-1001.5</v>
+        <v>-2003</v>
       </c>
       <c r="N1167">
-        <v>-2021.5</v>
+        <v>-4043</v>
       </c>
       <c r="O1167">
         <v>2</v>
@@ -68746,19 +68746,19 @@
         <v>61</v>
       </c>
       <c r="J1185">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1185">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1185">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1185">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1185">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1185">
         <v>2</v>
@@ -69896,19 +69896,19 @@
         <v>62</v>
       </c>
       <c r="J1208">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1208">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1208">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1208">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1208">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1208">
         <v>2</v>
@@ -74246,19 +74246,19 @@
         <v>63</v>
       </c>
       <c r="J1295">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1295">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1295">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1295">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1295">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1295">
         <v>2</v>
@@ -75046,19 +75046,19 @@
         <v>64</v>
       </c>
       <c r="J1311">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1311">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1311">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1311">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1311">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1311">
         <v>2</v>
@@ -77496,19 +77496,19 @@
         <v>65</v>
       </c>
       <c r="J1360">
-        <v>-86.5</v>
+        <v>-173</v>
       </c>
       <c r="K1360">
-        <v>-205.5</v>
+        <v>-411</v>
       </c>
       <c r="L1360">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M1360">
-        <v>472</v>
+        <v>944</v>
       </c>
       <c r="N1360">
-        <v>285.5</v>
+        <v>571</v>
       </c>
       <c r="O1360">
         <v>2</v>
@@ -84546,19 +84546,19 @@
         <v>66</v>
       </c>
       <c r="J1501">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1501">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1501">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1501">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1501">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1501">
         <v>2</v>
@@ -87546,19 +87546,19 @@
         <v>67</v>
       </c>
       <c r="J1561">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1561">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1561">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1561">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1561">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1561">
         <v>2</v>
@@ -89096,19 +89096,19 @@
         <v>68</v>
       </c>
       <c r="J1592">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1592">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1592">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1592">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1592">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1592">
         <v>2</v>
@@ -94746,19 +94746,19 @@
         <v>69</v>
       </c>
       <c r="J1705">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K1705">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L1705">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M1705">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N1705">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O1705">
         <v>2</v>
@@ -96634,13 +96634,13 @@
         <v>92.215111100000001</v>
       </c>
       <c r="F1743" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G1743" t="s">
-        <v>35</v>
+        <v>2569</v>
       </c>
       <c r="H1743" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I1743">
         <v>69</v>
@@ -96664,7 +96664,7 @@
         <v>2</v>
       </c>
       <c r="P1743" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1744" spans="1:16" x14ac:dyDescent="0.3">
@@ -96675,7 +96675,7 @@
         <v>432.92399999999998</v>
       </c>
       <c r="C1744" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="D1744">
         <v>21.086499700000001</v>
@@ -96684,13 +96684,13 @@
         <v>92.215111100000001</v>
       </c>
       <c r="F1744" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G1744" t="s">
-        <v>2570</v>
+        <v>35</v>
       </c>
       <c r="H1744" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I1744">
         <v>69</v>
@@ -107864,6 +107864,56 @@
         <v>2</v>
       </c>
       <c r="P1967" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1968" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F1968" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>2882</v>
+      </c>
+      <c r="H1968" t="s">
+        <v>2882</v>
+      </c>
+      <c r="I1968">
+        <v>69</v>
+      </c>
+      <c r="J1968">
+        <v>0</v>
+      </c>
+      <c r="K1968">
+        <v>0</v>
+      </c>
+      <c r="L1968">
+        <v>0</v>
+      </c>
+      <c r="M1968">
+        <v>0</v>
+      </c>
+      <c r="N1968">
+        <v>0</v>
+      </c>
+      <c r="O1968">
+        <v>2</v>
+      </c>
+      <c r="P1968" t="s">
         <v>2882</v>
       </c>
     </row>
